--- a/bill docs/22SNCJO-373/attendance/attendance_format_2_2024.xlsx
+++ b/bill docs/22SNCJO-373/attendance/attendance_format_2_2024.xlsx
@@ -634,12 +634,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
         <color rgb="FF000000"/>
-      </left>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -650,6 +663,17 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -693,30 +717,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -1679,54 +1679,50 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="23">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="23">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="23">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="23">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="23">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="23">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="23">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="23">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="24">
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="24">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="24">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="24">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="23">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="23">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="23">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="23">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="24">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="23">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="23">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="23">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="24">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="23">
       <alignment horizontal="general" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="23">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="23">
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="23">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="23">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="23">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="23">
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="23">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="23">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="23">
@@ -1750,20 +1746,19 @@
     <xf numFmtId="0" fontId="45" fillId="13" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="23">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1806,48 +1801,53 @@
     <xf numFmtId="2" fontId="45" fillId="14" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -2375,1119 +2375,1119 @@
           <t xml:space="preserve">    HINDUSTAN AERONAUTICS LTD,ENGINE DIVISION,KORAPUT,SUNABEDA                                                        ANNEXURE-I</t>
         </is>
       </c>
-      <c r="B1" s="316" t="n"/>
-      <c r="C1" s="316" t="n"/>
-      <c r="D1" s="316" t="n"/>
-      <c r="E1" s="316" t="n"/>
-      <c r="F1" s="316" t="n"/>
-      <c r="G1" s="316" t="n"/>
-      <c r="H1" s="316" t="n"/>
-      <c r="I1" s="316" t="n"/>
-      <c r="J1" s="316" t="n"/>
-      <c r="K1" s="316" t="n"/>
-      <c r="L1" s="316" t="n"/>
-      <c r="M1" s="316" t="n"/>
-      <c r="N1" s="316" t="n"/>
-      <c r="O1" s="316" t="n"/>
-      <c r="P1" s="316" t="n"/>
-      <c r="Q1" s="316" t="n"/>
-      <c r="R1" s="316" t="n"/>
-      <c r="S1" s="316" t="n"/>
-      <c r="T1" s="316" t="n"/>
-      <c r="U1" s="316" t="n"/>
-      <c r="V1" s="316" t="n"/>
-      <c r="W1" s="316" t="n"/>
-      <c r="X1" s="316" t="n"/>
-      <c r="Y1" s="316" t="n"/>
-      <c r="Z1" s="316" t="n"/>
-      <c r="AA1" s="316" t="n"/>
-      <c r="AB1" s="316" t="n"/>
-      <c r="AC1" s="316" t="n"/>
-      <c r="AD1" s="316" t="n"/>
-      <c r="AE1" s="316" t="n"/>
-      <c r="AF1" s="316" t="n"/>
-      <c r="AG1" s="316" t="n"/>
-      <c r="AH1" s="316" t="n"/>
-      <c r="AI1" s="316" t="n"/>
-      <c r="AJ1" s="317" t="n"/>
-    </row>
-    <row r="2" ht="14.25" customFormat="1" customHeight="1" s="318">
-      <c r="A2" s="319" t="inlineStr">
+      <c r="B1" s="340" t="n"/>
+      <c r="C1" s="340" t="n"/>
+      <c r="D1" s="340" t="n"/>
+      <c r="E1" s="340" t="n"/>
+      <c r="F1" s="340" t="n"/>
+      <c r="G1" s="340" t="n"/>
+      <c r="H1" s="340" t="n"/>
+      <c r="I1" s="340" t="n"/>
+      <c r="J1" s="340" t="n"/>
+      <c r="K1" s="340" t="n"/>
+      <c r="L1" s="340" t="n"/>
+      <c r="M1" s="340" t="n"/>
+      <c r="N1" s="340" t="n"/>
+      <c r="O1" s="340" t="n"/>
+      <c r="P1" s="340" t="n"/>
+      <c r="Q1" s="340" t="n"/>
+      <c r="R1" s="340" t="n"/>
+      <c r="S1" s="340" t="n"/>
+      <c r="T1" s="340" t="n"/>
+      <c r="U1" s="340" t="n"/>
+      <c r="V1" s="340" t="n"/>
+      <c r="W1" s="340" t="n"/>
+      <c r="X1" s="340" t="n"/>
+      <c r="Y1" s="340" t="n"/>
+      <c r="Z1" s="340" t="n"/>
+      <c r="AA1" s="340" t="n"/>
+      <c r="AB1" s="340" t="n"/>
+      <c r="AC1" s="340" t="n"/>
+      <c r="AD1" s="340" t="n"/>
+      <c r="AE1" s="340" t="n"/>
+      <c r="AF1" s="340" t="n"/>
+      <c r="AG1" s="340" t="n"/>
+      <c r="AH1" s="340" t="n"/>
+      <c r="AI1" s="340" t="n"/>
+      <c r="AJ1" s="341" t="n"/>
+    </row>
+    <row r="2" ht="14.25" customFormat="1" customHeight="1" s="317">
+      <c r="A2" s="318" t="inlineStr">
         <is>
           <t>ATTENDANCE ABSTRACT</t>
         </is>
       </c>
-      <c r="B2" s="316" t="n"/>
-      <c r="C2" s="317" t="n"/>
-      <c r="D2" s="320" t="n"/>
-      <c r="E2" s="316" t="n"/>
-      <c r="F2" s="316" t="n"/>
-      <c r="G2" s="316" t="n"/>
-      <c r="H2" s="316" t="n"/>
-      <c r="I2" s="316" t="n"/>
-      <c r="J2" s="316" t="n"/>
-      <c r="K2" s="316" t="n"/>
-      <c r="L2" s="316" t="n"/>
-      <c r="M2" s="316" t="n"/>
-      <c r="N2" s="316" t="n"/>
-      <c r="O2" s="316" t="n"/>
-      <c r="P2" s="316" t="n"/>
-      <c r="Q2" s="316" t="n"/>
-      <c r="R2" s="316" t="n"/>
-      <c r="S2" s="316" t="n"/>
-      <c r="T2" s="317" t="n"/>
-      <c r="U2" s="320" t="inlineStr">
+      <c r="B2" s="340" t="n"/>
+      <c r="C2" s="341" t="n"/>
+      <c r="D2" s="319" t="n"/>
+      <c r="E2" s="340" t="n"/>
+      <c r="F2" s="340" t="n"/>
+      <c r="G2" s="340" t="n"/>
+      <c r="H2" s="340" t="n"/>
+      <c r="I2" s="340" t="n"/>
+      <c r="J2" s="340" t="n"/>
+      <c r="K2" s="340" t="n"/>
+      <c r="L2" s="340" t="n"/>
+      <c r="M2" s="340" t="n"/>
+      <c r="N2" s="340" t="n"/>
+      <c r="O2" s="340" t="n"/>
+      <c r="P2" s="340" t="n"/>
+      <c r="Q2" s="340" t="n"/>
+      <c r="R2" s="340" t="n"/>
+      <c r="S2" s="340" t="n"/>
+      <c r="T2" s="341" t="n"/>
+      <c r="U2" s="319" t="inlineStr">
         <is>
           <t>FROM</t>
         </is>
       </c>
-      <c r="V2" s="316" t="n"/>
-      <c r="W2" s="316" t="n"/>
-      <c r="X2" s="317" t="n"/>
-      <c r="Y2" s="321" t="inlineStr">
+      <c r="V2" s="340" t="n"/>
+      <c r="W2" s="340" t="n"/>
+      <c r="X2" s="341" t="n"/>
+      <c r="Y2" s="320" t="inlineStr">
         <is>
           <t>01-02-2024</t>
         </is>
       </c>
-      <c r="Z2" s="316" t="n"/>
-      <c r="AA2" s="316" t="n"/>
-      <c r="AB2" s="316" t="n"/>
-      <c r="AC2" s="317" t="n"/>
-      <c r="AD2" s="322" t="inlineStr">
+      <c r="Z2" s="340" t="n"/>
+      <c r="AA2" s="340" t="n"/>
+      <c r="AB2" s="340" t="n"/>
+      <c r="AC2" s="341" t="n"/>
+      <c r="AD2" s="321" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
       </c>
-      <c r="AE2" s="316" t="n"/>
-      <c r="AF2" s="316" t="n"/>
-      <c r="AG2" s="317" t="n"/>
-      <c r="AH2" s="321" t="inlineStr">
+      <c r="AE2" s="340" t="n"/>
+      <c r="AF2" s="340" t="n"/>
+      <c r="AG2" s="341" t="n"/>
+      <c r="AH2" s="320" t="inlineStr">
         <is>
           <t>29-02-2024</t>
         </is>
       </c>
-      <c r="AI2" s="316" t="n"/>
-      <c r="AJ2" s="317" t="n"/>
+      <c r="AI2" s="340" t="n"/>
+      <c r="AJ2" s="341" t="n"/>
     </row>
     <row r="3" ht="38.25" customFormat="1" customHeight="1" s="314">
-      <c r="A3" s="323" t="inlineStr">
+      <c r="A3" s="322" t="inlineStr">
         <is>
           <t>NAME OF THE WORK</t>
         </is>
       </c>
-      <c r="B3" s="316" t="n"/>
-      <c r="C3" s="317" t="n"/>
-      <c r="D3" s="324" t="inlineStr">
+      <c r="B3" s="340" t="n"/>
+      <c r="C3" s="341" t="n"/>
+      <c r="D3" s="323" t="inlineStr">
         <is>
           <t>MANPOWER OUTSOURCING FOR MECHANICAL &amp; ELECTRICAL MAINTENANCE OF AERO ENGINE TEST RIGS,EQUIPMENTS &amp; MACHINES OF OVERHAUL SHOP, MF RIGROOM, MACHINE SHOP, RD-33 F/S, KSA BAY, TG BAY, GP21 &amp; ASSEMBLY SHOP IN ENGINE DIVISION AND FOR MECHANICAL MAINTENANCE OF TEST CELLS (CELL-1, CELL-2, CELL-4 &amp; CELL-10) OF ENGINE DIVISION.</t>
         </is>
       </c>
-      <c r="E3" s="316" t="n"/>
-      <c r="F3" s="316" t="n"/>
-      <c r="G3" s="316" t="n"/>
-      <c r="H3" s="316" t="n"/>
-      <c r="I3" s="316" t="n"/>
-      <c r="J3" s="316" t="n"/>
-      <c r="K3" s="316" t="n"/>
-      <c r="L3" s="316" t="n"/>
-      <c r="M3" s="316" t="n"/>
-      <c r="N3" s="316" t="n"/>
-      <c r="O3" s="316" t="n"/>
-      <c r="P3" s="316" t="n"/>
-      <c r="Q3" s="316" t="n"/>
-      <c r="R3" s="316" t="n"/>
-      <c r="S3" s="316" t="n"/>
-      <c r="T3" s="316" t="n"/>
-      <c r="U3" s="316" t="n"/>
-      <c r="V3" s="316" t="n"/>
-      <c r="W3" s="316" t="n"/>
-      <c r="X3" s="316" t="n"/>
-      <c r="Y3" s="316" t="n"/>
-      <c r="Z3" s="316" t="n"/>
-      <c r="AA3" s="316" t="n"/>
-      <c r="AB3" s="316" t="n"/>
-      <c r="AC3" s="316" t="n"/>
-      <c r="AD3" s="316" t="n"/>
-      <c r="AE3" s="316" t="n"/>
-      <c r="AF3" s="316" t="n"/>
-      <c r="AG3" s="316" t="n"/>
-      <c r="AH3" s="316" t="n"/>
-      <c r="AI3" s="316" t="n"/>
-      <c r="AJ3" s="317" t="n"/>
+      <c r="E3" s="340" t="n"/>
+      <c r="F3" s="340" t="n"/>
+      <c r="G3" s="340" t="n"/>
+      <c r="H3" s="340" t="n"/>
+      <c r="I3" s="340" t="n"/>
+      <c r="J3" s="340" t="n"/>
+      <c r="K3" s="340" t="n"/>
+      <c r="L3" s="340" t="n"/>
+      <c r="M3" s="340" t="n"/>
+      <c r="N3" s="340" t="n"/>
+      <c r="O3" s="340" t="n"/>
+      <c r="P3" s="340" t="n"/>
+      <c r="Q3" s="340" t="n"/>
+      <c r="R3" s="340" t="n"/>
+      <c r="S3" s="340" t="n"/>
+      <c r="T3" s="340" t="n"/>
+      <c r="U3" s="340" t="n"/>
+      <c r="V3" s="340" t="n"/>
+      <c r="W3" s="340" t="n"/>
+      <c r="X3" s="340" t="n"/>
+      <c r="Y3" s="340" t="n"/>
+      <c r="Z3" s="340" t="n"/>
+      <c r="AA3" s="340" t="n"/>
+      <c r="AB3" s="340" t="n"/>
+      <c r="AC3" s="340" t="n"/>
+      <c r="AD3" s="340" t="n"/>
+      <c r="AE3" s="340" t="n"/>
+      <c r="AF3" s="340" t="n"/>
+      <c r="AG3" s="340" t="n"/>
+      <c r="AH3" s="340" t="n"/>
+      <c r="AI3" s="340" t="n"/>
+      <c r="AJ3" s="341" t="n"/>
     </row>
     <row r="4" ht="13.5" customFormat="1" customHeight="1" s="314">
-      <c r="A4" s="323" t="inlineStr">
+      <c r="A4" s="322" t="inlineStr">
         <is>
           <t>DEPARTMENT NAME &amp; NO.</t>
         </is>
       </c>
-      <c r="B4" s="316" t="n"/>
-      <c r="C4" s="317" t="n"/>
-      <c r="D4" s="325" t="inlineStr">
+      <c r="B4" s="340" t="n"/>
+      <c r="C4" s="341" t="n"/>
+      <c r="D4" s="324" t="inlineStr">
         <is>
           <t>FNNP-25</t>
         </is>
       </c>
-      <c r="E4" s="316" t="n"/>
-      <c r="F4" s="316" t="n"/>
-      <c r="G4" s="316" t="n"/>
-      <c r="H4" s="316" t="n"/>
-      <c r="I4" s="316" t="n"/>
-      <c r="J4" s="316" t="n"/>
-      <c r="K4" s="316" t="n"/>
-      <c r="L4" s="316" t="n"/>
-      <c r="M4" s="316" t="n"/>
-      <c r="N4" s="316" t="n"/>
-      <c r="O4" s="316" t="n"/>
-      <c r="P4" s="316" t="n"/>
-      <c r="Q4" s="316" t="n"/>
-      <c r="R4" s="316" t="n"/>
-      <c r="S4" s="316" t="n"/>
-      <c r="T4" s="317" t="n"/>
-      <c r="U4" s="325" t="inlineStr">
+      <c r="E4" s="340" t="n"/>
+      <c r="F4" s="340" t="n"/>
+      <c r="G4" s="340" t="n"/>
+      <c r="H4" s="340" t="n"/>
+      <c r="I4" s="340" t="n"/>
+      <c r="J4" s="340" t="n"/>
+      <c r="K4" s="340" t="n"/>
+      <c r="L4" s="340" t="n"/>
+      <c r="M4" s="340" t="n"/>
+      <c r="N4" s="340" t="n"/>
+      <c r="O4" s="340" t="n"/>
+      <c r="P4" s="340" t="n"/>
+      <c r="Q4" s="340" t="n"/>
+      <c r="R4" s="340" t="n"/>
+      <c r="S4" s="340" t="n"/>
+      <c r="T4" s="341" t="n"/>
+      <c r="U4" s="324" t="inlineStr">
         <is>
           <t>DEPT CONTACT NO.</t>
         </is>
       </c>
-      <c r="V4" s="316" t="n"/>
-      <c r="W4" s="316" t="n"/>
-      <c r="X4" s="316" t="n"/>
-      <c r="Y4" s="316" t="n"/>
-      <c r="Z4" s="316" t="n"/>
-      <c r="AA4" s="317" t="n"/>
-      <c r="AB4" s="326" t="n">
+      <c r="V4" s="340" t="n"/>
+      <c r="W4" s="340" t="n"/>
+      <c r="X4" s="340" t="n"/>
+      <c r="Y4" s="340" t="n"/>
+      <c r="Z4" s="340" t="n"/>
+      <c r="AA4" s="341" t="n"/>
+      <c r="AB4" s="325" t="n">
         <v>2874</v>
       </c>
-      <c r="AC4" s="316" t="n"/>
-      <c r="AD4" s="316" t="n"/>
-      <c r="AE4" s="316" t="n"/>
-      <c r="AF4" s="316" t="n"/>
-      <c r="AG4" s="316" t="n"/>
-      <c r="AH4" s="316" t="n"/>
-      <c r="AI4" s="316" t="n"/>
-      <c r="AJ4" s="317" t="n"/>
+      <c r="AC4" s="340" t="n"/>
+      <c r="AD4" s="340" t="n"/>
+      <c r="AE4" s="340" t="n"/>
+      <c r="AF4" s="340" t="n"/>
+      <c r="AG4" s="340" t="n"/>
+      <c r="AH4" s="340" t="n"/>
+      <c r="AI4" s="340" t="n"/>
+      <c r="AJ4" s="341" t="n"/>
     </row>
     <row r="5" ht="12.75" customFormat="1" customHeight="1" s="314">
-      <c r="A5" s="323" t="inlineStr">
+      <c r="A5" s="322" t="inlineStr">
         <is>
           <t>NAME OF THE CONTRACTOR</t>
         </is>
       </c>
-      <c r="B5" s="316" t="n"/>
-      <c r="C5" s="317" t="n"/>
-      <c r="D5" s="326" t="inlineStr">
+      <c r="B5" s="340" t="n"/>
+      <c r="C5" s="341" t="n"/>
+      <c r="D5" s="325" t="inlineStr">
         <is>
           <t xml:space="preserve"> M/S SPRYSOFT TECHNOLOGIES PRIVATE LIMITED, HYDERABAD.</t>
         </is>
       </c>
-      <c r="E5" s="316" t="n"/>
-      <c r="F5" s="316" t="n"/>
-      <c r="G5" s="316" t="n"/>
-      <c r="H5" s="316" t="n"/>
-      <c r="I5" s="316" t="n"/>
-      <c r="J5" s="316" t="n"/>
-      <c r="K5" s="316" t="n"/>
-      <c r="L5" s="316" t="n"/>
-      <c r="M5" s="316" t="n"/>
-      <c r="N5" s="316" t="n"/>
-      <c r="O5" s="316" t="n"/>
-      <c r="P5" s="316" t="n"/>
-      <c r="Q5" s="316" t="n"/>
-      <c r="R5" s="316" t="n"/>
-      <c r="S5" s="316" t="n"/>
-      <c r="T5" s="316" t="n"/>
-      <c r="U5" s="316" t="n"/>
-      <c r="V5" s="316" t="n"/>
-      <c r="W5" s="316" t="n"/>
-      <c r="X5" s="316" t="n"/>
-      <c r="Y5" s="316" t="n"/>
-      <c r="Z5" s="316" t="n"/>
-      <c r="AA5" s="316" t="n"/>
-      <c r="AB5" s="316" t="n"/>
-      <c r="AC5" s="316" t="n"/>
-      <c r="AD5" s="316" t="n"/>
-      <c r="AE5" s="316" t="n"/>
-      <c r="AF5" s="316" t="n"/>
-      <c r="AG5" s="316" t="n"/>
-      <c r="AH5" s="316" t="n"/>
-      <c r="AI5" s="316" t="n"/>
-      <c r="AJ5" s="317" t="n"/>
+      <c r="E5" s="340" t="n"/>
+      <c r="F5" s="340" t="n"/>
+      <c r="G5" s="340" t="n"/>
+      <c r="H5" s="340" t="n"/>
+      <c r="I5" s="340" t="n"/>
+      <c r="J5" s="340" t="n"/>
+      <c r="K5" s="340" t="n"/>
+      <c r="L5" s="340" t="n"/>
+      <c r="M5" s="340" t="n"/>
+      <c r="N5" s="340" t="n"/>
+      <c r="O5" s="340" t="n"/>
+      <c r="P5" s="340" t="n"/>
+      <c r="Q5" s="340" t="n"/>
+      <c r="R5" s="340" t="n"/>
+      <c r="S5" s="340" t="n"/>
+      <c r="T5" s="340" t="n"/>
+      <c r="U5" s="340" t="n"/>
+      <c r="V5" s="340" t="n"/>
+      <c r="W5" s="340" t="n"/>
+      <c r="X5" s="340" t="n"/>
+      <c r="Y5" s="340" t="n"/>
+      <c r="Z5" s="340" t="n"/>
+      <c r="AA5" s="340" t="n"/>
+      <c r="AB5" s="340" t="n"/>
+      <c r="AC5" s="340" t="n"/>
+      <c r="AD5" s="340" t="n"/>
+      <c r="AE5" s="340" t="n"/>
+      <c r="AF5" s="340" t="n"/>
+      <c r="AG5" s="340" t="n"/>
+      <c r="AH5" s="340" t="n"/>
+      <c r="AI5" s="340" t="n"/>
+      <c r="AJ5" s="341" t="n"/>
     </row>
     <row r="6" ht="12.75" customFormat="1" customHeight="1" s="314">
-      <c r="A6" s="327" t="inlineStr">
+      <c r="A6" s="326" t="inlineStr">
         <is>
           <t>WORK ORDER NO.</t>
         </is>
       </c>
-      <c r="B6" s="316" t="n"/>
-      <c r="C6" s="317" t="n"/>
-      <c r="D6" s="325" t="inlineStr">
+      <c r="B6" s="340" t="n"/>
+      <c r="C6" s="341" t="n"/>
+      <c r="D6" s="324" t="inlineStr">
         <is>
           <t xml:space="preserve">HAL/KPT/SNC/08/JO-373/2023/848  </t>
         </is>
       </c>
-      <c r="E6" s="316" t="n"/>
-      <c r="F6" s="316" t="n"/>
-      <c r="G6" s="316" t="n"/>
-      <c r="H6" s="316" t="n"/>
-      <c r="I6" s="316" t="n"/>
-      <c r="J6" s="316" t="n"/>
-      <c r="K6" s="316" t="n"/>
-      <c r="L6" s="316" t="n"/>
-      <c r="M6" s="316" t="n"/>
-      <c r="N6" s="316" t="n"/>
-      <c r="O6" s="316" t="n"/>
-      <c r="P6" s="316" t="n"/>
-      <c r="Q6" s="316" t="n"/>
-      <c r="R6" s="317" t="n"/>
-      <c r="S6" s="325" t="inlineStr">
+      <c r="E6" s="340" t="n"/>
+      <c r="F6" s="340" t="n"/>
+      <c r="G6" s="340" t="n"/>
+      <c r="H6" s="340" t="n"/>
+      <c r="I6" s="340" t="n"/>
+      <c r="J6" s="340" t="n"/>
+      <c r="K6" s="340" t="n"/>
+      <c r="L6" s="340" t="n"/>
+      <c r="M6" s="340" t="n"/>
+      <c r="N6" s="340" t="n"/>
+      <c r="O6" s="340" t="n"/>
+      <c r="P6" s="340" t="n"/>
+      <c r="Q6" s="340" t="n"/>
+      <c r="R6" s="341" t="n"/>
+      <c r="S6" s="324" t="inlineStr">
         <is>
           <t xml:space="preserve"> GEM CONTRACT  NO.</t>
         </is>
       </c>
-      <c r="T6" s="316" t="n"/>
-      <c r="U6" s="316" t="n"/>
-      <c r="V6" s="316" t="n"/>
-      <c r="W6" s="316" t="n"/>
-      <c r="X6" s="316" t="n"/>
-      <c r="Y6" s="316" t="n"/>
-      <c r="Z6" s="317" t="n"/>
-      <c r="AA6" s="325" t="inlineStr">
+      <c r="T6" s="340" t="n"/>
+      <c r="U6" s="340" t="n"/>
+      <c r="V6" s="340" t="n"/>
+      <c r="W6" s="340" t="n"/>
+      <c r="X6" s="340" t="n"/>
+      <c r="Y6" s="340" t="n"/>
+      <c r="Z6" s="341" t="n"/>
+      <c r="AA6" s="324" t="inlineStr">
         <is>
           <t>GEMC-511687704648297, DT: 31-JUL-2023</t>
         </is>
       </c>
-      <c r="AB6" s="316" t="n"/>
-      <c r="AC6" s="316" t="n"/>
-      <c r="AD6" s="316" t="n"/>
-      <c r="AE6" s="316" t="n"/>
-      <c r="AF6" s="316" t="n"/>
-      <c r="AG6" s="316" t="n"/>
-      <c r="AH6" s="316" t="n"/>
-      <c r="AI6" s="316" t="n"/>
-      <c r="AJ6" s="317" t="n"/>
+      <c r="AB6" s="340" t="n"/>
+      <c r="AC6" s="340" t="n"/>
+      <c r="AD6" s="340" t="n"/>
+      <c r="AE6" s="340" t="n"/>
+      <c r="AF6" s="340" t="n"/>
+      <c r="AG6" s="340" t="n"/>
+      <c r="AH6" s="340" t="n"/>
+      <c r="AI6" s="340" t="n"/>
+      <c r="AJ6" s="341" t="n"/>
     </row>
     <row r="7" ht="12" customFormat="1" customHeight="1" s="314">
-      <c r="A7" s="323" t="inlineStr">
+      <c r="A7" s="322" t="inlineStr">
         <is>
           <t>VALIDITY OF WORK ORDER</t>
         </is>
       </c>
-      <c r="B7" s="316" t="n"/>
-      <c r="C7" s="317" t="n"/>
-      <c r="D7" s="325" t="inlineStr">
+      <c r="B7" s="340" t="n"/>
+      <c r="C7" s="341" t="n"/>
+      <c r="D7" s="324" t="inlineStr">
         <is>
           <t>FOR THE PERIOD</t>
         </is>
       </c>
-      <c r="E7" s="316" t="n"/>
-      <c r="F7" s="316" t="n"/>
-      <c r="G7" s="316" t="n"/>
-      <c r="H7" s="316" t="n"/>
-      <c r="I7" s="316" t="n"/>
-      <c r="J7" s="316" t="n"/>
-      <c r="K7" s="316" t="n"/>
-      <c r="L7" s="316" t="n"/>
-      <c r="M7" s="316" t="n"/>
-      <c r="N7" s="316" t="n"/>
-      <c r="O7" s="316" t="n"/>
-      <c r="P7" s="316" t="n"/>
-      <c r="Q7" s="316" t="n"/>
-      <c r="R7" s="316" t="n"/>
-      <c r="S7" s="316" t="n"/>
-      <c r="T7" s="317" t="n"/>
-      <c r="U7" s="325" t="inlineStr">
+      <c r="E7" s="340" t="n"/>
+      <c r="F7" s="340" t="n"/>
+      <c r="G7" s="340" t="n"/>
+      <c r="H7" s="340" t="n"/>
+      <c r="I7" s="340" t="n"/>
+      <c r="J7" s="340" t="n"/>
+      <c r="K7" s="340" t="n"/>
+      <c r="L7" s="340" t="n"/>
+      <c r="M7" s="340" t="n"/>
+      <c r="N7" s="340" t="n"/>
+      <c r="O7" s="340" t="n"/>
+      <c r="P7" s="340" t="n"/>
+      <c r="Q7" s="340" t="n"/>
+      <c r="R7" s="340" t="n"/>
+      <c r="S7" s="340" t="n"/>
+      <c r="T7" s="341" t="n"/>
+      <c r="U7" s="324" t="inlineStr">
         <is>
           <t>FROM</t>
         </is>
       </c>
-      <c r="V7" s="316" t="n"/>
-      <c r="W7" s="316" t="n"/>
-      <c r="X7" s="317" t="n"/>
-      <c r="Y7" s="328" t="inlineStr">
+      <c r="V7" s="340" t="n"/>
+      <c r="W7" s="340" t="n"/>
+      <c r="X7" s="341" t="n"/>
+      <c r="Y7" s="327" t="inlineStr">
         <is>
           <t>14-08-2023</t>
         </is>
       </c>
-      <c r="Z7" s="316" t="n"/>
-      <c r="AA7" s="316" t="n"/>
-      <c r="AB7" s="316" t="n"/>
-      <c r="AC7" s="317" t="n"/>
-      <c r="AD7" s="329" t="inlineStr">
+      <c r="Z7" s="340" t="n"/>
+      <c r="AA7" s="340" t="n"/>
+      <c r="AB7" s="340" t="n"/>
+      <c r="AC7" s="341" t="n"/>
+      <c r="AD7" s="324" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
       </c>
-      <c r="AE7" s="316" t="n"/>
-      <c r="AF7" s="316" t="n"/>
-      <c r="AG7" s="316" t="n"/>
-      <c r="AH7" s="328" t="inlineStr">
+      <c r="AE7" s="340" t="n"/>
+      <c r="AF7" s="340" t="n"/>
+      <c r="AG7" s="341" t="n"/>
+      <c r="AH7" s="327" t="inlineStr">
         <is>
           <t>13-08-2025</t>
         </is>
       </c>
-      <c r="AI7" s="316" t="n"/>
-      <c r="AJ7" s="317" t="n"/>
-    </row>
-    <row r="8" ht="33" customFormat="1" customHeight="1" s="330">
-      <c r="A8" s="331" t="inlineStr">
+      <c r="AI7" s="340" t="n"/>
+      <c r="AJ7" s="341" t="n"/>
+    </row>
+    <row r="8" ht="33" customFormat="1" customHeight="1" s="328">
+      <c r="A8" s="329" t="inlineStr">
         <is>
           <t>SL NO</t>
         </is>
       </c>
-      <c r="B8" s="331" t="inlineStr">
+      <c r="B8" s="329" t="inlineStr">
         <is>
           <t>CATEGORY OF SKILLNESS</t>
         </is>
       </c>
-      <c r="C8" s="331" t="inlineStr">
+      <c r="C8" s="329" t="inlineStr">
         <is>
           <t>NAME OF CONTRACT PERSONNEL</t>
         </is>
       </c>
-      <c r="D8" s="326" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="326" t="n">
+      <c r="D8" s="325" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="325" t="n">
         <v>2</v>
       </c>
-      <c r="F8" s="326" t="n">
+      <c r="F8" s="325" t="n">
         <v>3</v>
       </c>
-      <c r="G8" s="326" t="n">
+      <c r="G8" s="325" t="n">
         <v>4</v>
       </c>
-      <c r="H8" s="326" t="n">
+      <c r="H8" s="325" t="n">
         <v>5</v>
       </c>
-      <c r="I8" s="326" t="n">
+      <c r="I8" s="325" t="n">
         <v>6</v>
       </c>
-      <c r="J8" s="326" t="n">
+      <c r="J8" s="325" t="n">
         <v>7</v>
       </c>
-      <c r="K8" s="326" t="n">
+      <c r="K8" s="325" t="n">
         <v>8</v>
       </c>
-      <c r="L8" s="326" t="n">
+      <c r="L8" s="325" t="n">
         <v>9</v>
       </c>
-      <c r="M8" s="326" t="n">
+      <c r="M8" s="325" t="n">
         <v>10</v>
       </c>
-      <c r="N8" s="326" t="n">
+      <c r="N8" s="325" t="n">
         <v>11</v>
       </c>
-      <c r="O8" s="326" t="n">
+      <c r="O8" s="325" t="n">
         <v>12</v>
       </c>
-      <c r="P8" s="326" t="n">
+      <c r="P8" s="325" t="n">
         <v>13</v>
       </c>
-      <c r="Q8" s="326" t="n">
+      <c r="Q8" s="325" t="n">
         <v>14</v>
       </c>
-      <c r="R8" s="326" t="n">
+      <c r="R8" s="325" t="n">
         <v>15</v>
       </c>
-      <c r="S8" s="326" t="n">
+      <c r="S8" s="325" t="n">
         <v>16</v>
       </c>
-      <c r="T8" s="326" t="n">
+      <c r="T8" s="325" t="n">
         <v>17</v>
       </c>
-      <c r="U8" s="326" t="n">
+      <c r="U8" s="325" t="n">
         <v>18</v>
       </c>
-      <c r="V8" s="326" t="n">
+      <c r="V8" s="325" t="n">
         <v>19</v>
       </c>
-      <c r="W8" s="326" t="n">
+      <c r="W8" s="325" t="n">
         <v>20</v>
       </c>
-      <c r="X8" s="326" t="n">
+      <c r="X8" s="325" t="n">
         <v>21</v>
       </c>
-      <c r="Y8" s="326" t="n">
+      <c r="Y8" s="325" t="n">
         <v>22</v>
       </c>
-      <c r="Z8" s="326" t="n">
+      <c r="Z8" s="325" t="n">
         <v>23</v>
       </c>
-      <c r="AA8" s="326" t="n">
+      <c r="AA8" s="325" t="n">
         <v>24</v>
       </c>
-      <c r="AB8" s="326" t="n">
+      <c r="AB8" s="325" t="n">
         <v>25</v>
       </c>
-      <c r="AC8" s="326" t="n">
+      <c r="AC8" s="325" t="n">
         <v>26</v>
       </c>
-      <c r="AD8" s="326" t="n">
+      <c r="AD8" s="325" t="n">
         <v>27</v>
       </c>
-      <c r="AE8" s="326" t="n">
+      <c r="AE8" s="325" t="n">
         <v>28</v>
       </c>
-      <c r="AF8" s="326" t="n">
+      <c r="AF8" s="325" t="n">
         <v>29</v>
       </c>
-      <c r="AG8" s="326" t="n">
+      <c r="AG8" s="325" t="n">
         <v>30</v>
       </c>
-      <c r="AH8" s="326" t="n">
+      <c r="AH8" s="325" t="n">
         <v>31</v>
       </c>
-      <c r="AI8" s="332" t="inlineStr">
+      <c r="AI8" s="330" t="inlineStr">
         <is>
           <t>TOTAL PAY DAYS</t>
         </is>
       </c>
-      <c r="AJ8" s="332" t="inlineStr">
+      <c r="AJ8" s="330" t="inlineStr">
         <is>
           <t>NH DAY</t>
         </is>
       </c>
-      <c r="AK8" s="333" t="n"/>
-      <c r="AL8" s="333" t="n"/>
-      <c r="AM8" s="333" t="n"/>
-      <c r="AN8" s="333" t="n"/>
-    </row>
-    <row r="9" ht="15" customFormat="1" customHeight="1" s="333">
-      <c r="A9" s="334" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" s="335" t="inlineStr">
+      <c r="AK8" s="331" t="n"/>
+      <c r="AL8" s="331" t="n"/>
+      <c r="AM8" s="331" t="n"/>
+      <c r="AN8" s="331" t="n"/>
+    </row>
+    <row r="9" ht="15" customFormat="1" customHeight="1" s="331">
+      <c r="A9" s="332" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="333" t="inlineStr">
         <is>
           <t>SKILLED</t>
         </is>
       </c>
-      <c r="C9" s="335" t="inlineStr">
+      <c r="C9" s="333" t="inlineStr">
         <is>
           <t>NITYA SUNDAR MUDULI</t>
         </is>
       </c>
-      <c r="D9" s="336" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="334" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="334" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="337" t="inlineStr">
+      <c r="D9" s="334" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="332" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="332" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="335" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="H9" s="334" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="334" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="334" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="334" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" s="334" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" s="334" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" s="337" t="inlineStr">
+      <c r="H9" s="332" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="332" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="332" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="332" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="332" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="335" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="O9" s="334" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" s="334" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="334" t="n">
+      <c r="O9" s="332" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" s="332" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="332" t="n">
         <v>0.5</v>
       </c>
-      <c r="R9" s="334" t="n">
-        <v>1</v>
-      </c>
-      <c r="S9" s="336" t="n">
-        <v>1</v>
-      </c>
-      <c r="T9" s="334" t="n">
-        <v>1</v>
-      </c>
-      <c r="U9" s="337" t="n">
-        <v>1</v>
-      </c>
-      <c r="V9" s="334" t="n">
-        <v>1</v>
-      </c>
-      <c r="W9" s="334" t="n">
-        <v>1</v>
-      </c>
-      <c r="X9" s="334" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="334" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="336" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="334" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="337" t="n">
+      <c r="R9" s="332" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" s="334" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" s="332" t="n">
+        <v>1</v>
+      </c>
+      <c r="U9" s="335" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" s="332" t="n">
+        <v>1</v>
+      </c>
+      <c r="W9" s="332" t="n">
+        <v>1</v>
+      </c>
+      <c r="X9" s="332" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="332" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="334" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="332" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="335" t="n">
         <v>0.5</v>
       </c>
-      <c r="AC9" s="334" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD9" s="334" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="334" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF9" s="334" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG9" s="334" t="inlineStr">
+      <c r="AC9" s="332" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="332" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="332" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="332" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="332" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="AH9" s="334" t="inlineStr">
+      <c r="AH9" s="332" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="AI9" s="336" t="n">
+      <c r="AI9" s="334" t="n">
         <v>26</v>
       </c>
-      <c r="AJ9" s="334" t="n">
+      <c r="AJ9" s="332" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="15" customFormat="1" customHeight="1" s="333">
-      <c r="A10" s="336" t="n">
+    <row r="10" ht="15" customFormat="1" customHeight="1" s="331">
+      <c r="A10" s="334" t="n">
         <v>2</v>
       </c>
-      <c r="B10" s="338" t="inlineStr">
+      <c r="B10" s="336" t="inlineStr">
         <is>
           <t>SEMI-SKILLED</t>
         </is>
       </c>
-      <c r="C10" s="338" t="inlineStr">
+      <c r="C10" s="336" t="inlineStr">
         <is>
           <t>JAGANNATH SAHU</t>
         </is>
       </c>
-      <c r="D10" s="336" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="336" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="336" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="339" t="n">
+      <c r="D10" s="334" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="334" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="334" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="337" t="n">
         <v>0.5</v>
       </c>
-      <c r="H10" s="336" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="336" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="336" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="336" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" s="336" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" s="336" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" s="339" t="inlineStr">
+      <c r="H10" s="334" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="334" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="334" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="334" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" s="334" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="337" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="O10" s="336" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" s="336" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="336" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="336" t="n">
-        <v>1</v>
-      </c>
-      <c r="S10" s="336" t="n">
-        <v>1</v>
-      </c>
-      <c r="T10" s="336" t="n">
-        <v>1</v>
-      </c>
-      <c r="U10" s="339" t="inlineStr">
+      <c r="O10" s="334" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" s="334" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="334" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="334" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" s="334" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" s="334" t="n">
+        <v>1</v>
+      </c>
+      <c r="U10" s="337" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="V10" s="336" t="n">
-        <v>1</v>
-      </c>
-      <c r="W10" s="336" t="n">
-        <v>1</v>
-      </c>
-      <c r="X10" s="336" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="336" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="336" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="336" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="339" t="inlineStr">
+      <c r="V10" s="334" t="n">
+        <v>1</v>
+      </c>
+      <c r="W10" s="334" t="n">
+        <v>1</v>
+      </c>
+      <c r="X10" s="334" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="334" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="334" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="334" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="337" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AC10" s="336" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="336" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="336" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF10" s="336" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG10" s="336" t="inlineStr">
+      <c r="AC10" s="334" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="334" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="334" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="334" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="334" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="AH10" s="336" t="inlineStr">
+      <c r="AH10" s="334" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="AI10" s="336" t="n">
+      <c r="AI10" s="334" t="n">
         <v>25.5</v>
       </c>
-      <c r="AJ10" s="336" t="n">
+      <c r="AJ10" s="334" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="15" customFormat="1" customHeight="1" s="333">
-      <c r="A11" s="336" t="n">
+    <row r="11" ht="15" customFormat="1" customHeight="1" s="331">
+      <c r="A11" s="334" t="n">
         <v>3</v>
       </c>
-      <c r="B11" s="338" t="inlineStr">
+      <c r="B11" s="336" t="inlineStr">
         <is>
           <t>UNSKILLED</t>
         </is>
       </c>
-      <c r="C11" s="338" t="inlineStr">
+      <c r="C11" s="336" t="inlineStr">
         <is>
           <t>DANA MAJHI</t>
         </is>
       </c>
-      <c r="D11" s="336" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="336" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="336" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="339" t="inlineStr">
+      <c r="D11" s="334" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="334" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="334" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="337" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="H11" s="336" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="336" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="336" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="336" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" s="336" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" s="336" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" s="339" t="inlineStr">
+      <c r="H11" s="334" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="334" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="334" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="334" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="334" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="337" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="O11" s="336" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" s="336" t="n">
+      <c r="O11" s="334" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" s="334" t="n">
         <v>0.5</v>
       </c>
-      <c r="Q11" s="336" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="336" t="n">
-        <v>1</v>
-      </c>
-      <c r="S11" s="336" t="n">
-        <v>1</v>
-      </c>
-      <c r="T11" s="336" t="n">
-        <v>1</v>
-      </c>
-      <c r="U11" s="339" t="inlineStr">
+      <c r="Q11" s="334" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="334" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" s="334" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" s="334" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" s="337" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="V11" s="336" t="n">
-        <v>1</v>
-      </c>
-      <c r="W11" s="336" t="n">
-        <v>1</v>
-      </c>
-      <c r="X11" s="336" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="336" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="336" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="336" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="339" t="inlineStr">
+      <c r="V11" s="334" t="n">
+        <v>1</v>
+      </c>
+      <c r="W11" s="334" t="n">
+        <v>1</v>
+      </c>
+      <c r="X11" s="334" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="334" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="334" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="334" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="337" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AC11" s="336" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD11" s="336" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="336" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF11" s="336" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG11" s="336" t="inlineStr">
+      <c r="AC11" s="334" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="334" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="334" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="334" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="334" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="AH11" s="336" t="inlineStr">
+      <c r="AH11" s="334" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="AI11" s="336" t="n">
+      <c r="AI11" s="334" t="n">
         <v>24.5</v>
       </c>
-      <c r="AJ11" s="336" t="n">
+      <c r="AJ11" s="334" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="15" customFormat="1" customHeight="1" s="333">
-      <c r="A12" s="340" t="inlineStr">
+    <row r="12" ht="15" customFormat="1" customHeight="1" s="331">
+      <c r="A12" s="316" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="B12" s="340" t="inlineStr">
+      <c r="B12" s="316" t="inlineStr">
         <is>
           <t>"1"- Means Present, "0"- Means Absent, "0.5"-Means Halfday Present</t>
         </is>
       </c>
-      <c r="C12" s="343" t="n"/>
-      <c r="D12" s="343" t="n"/>
-      <c r="E12" s="343" t="n"/>
-      <c r="F12" s="343" t="n"/>
-      <c r="G12" s="343" t="n"/>
-      <c r="H12" s="343" t="n"/>
-      <c r="I12" s="343" t="n"/>
-      <c r="J12" s="343" t="n"/>
-      <c r="K12" s="343" t="n"/>
-      <c r="L12" s="343" t="n"/>
-      <c r="M12" s="343" t="n"/>
-      <c r="N12" s="343" t="n"/>
-      <c r="O12" s="343" t="n"/>
-      <c r="P12" s="343" t="n"/>
-      <c r="Q12" s="343" t="n"/>
-      <c r="R12" s="343" t="n"/>
-      <c r="S12" s="343" t="n"/>
-      <c r="T12" s="343" t="n"/>
-      <c r="U12" s="343" t="n"/>
-      <c r="V12" s="343" t="n"/>
-      <c r="W12" s="343" t="n"/>
-      <c r="X12" s="343" t="n"/>
-      <c r="Y12" s="343" t="n"/>
-      <c r="Z12" s="343" t="n"/>
-      <c r="AA12" s="343" t="n"/>
-      <c r="AB12" s="343" t="n"/>
-      <c r="AC12" s="343" t="n"/>
-      <c r="AD12" s="343" t="n"/>
-      <c r="AE12" s="343" t="n"/>
-      <c r="AF12" s="343" t="n"/>
-      <c r="AG12" s="343" t="n"/>
-      <c r="AH12" s="344" t="n"/>
-      <c r="AI12" s="340" t="n"/>
-      <c r="AJ12" s="340" t="n"/>
-    </row>
-    <row r="13" ht="15" customFormat="1" customHeight="1" s="333">
-      <c r="A13" s="340" t="inlineStr">
+      <c r="C12" s="340" t="n"/>
+      <c r="D12" s="340" t="n"/>
+      <c r="E12" s="340" t="n"/>
+      <c r="F12" s="340" t="n"/>
+      <c r="G12" s="340" t="n"/>
+      <c r="H12" s="340" t="n"/>
+      <c r="I12" s="340" t="n"/>
+      <c r="J12" s="340" t="n"/>
+      <c r="K12" s="340" t="n"/>
+      <c r="L12" s="340" t="n"/>
+      <c r="M12" s="340" t="n"/>
+      <c r="N12" s="340" t="n"/>
+      <c r="O12" s="340" t="n"/>
+      <c r="P12" s="340" t="n"/>
+      <c r="Q12" s="340" t="n"/>
+      <c r="R12" s="340" t="n"/>
+      <c r="S12" s="340" t="n"/>
+      <c r="T12" s="340" t="n"/>
+      <c r="U12" s="340" t="n"/>
+      <c r="V12" s="340" t="n"/>
+      <c r="W12" s="340" t="n"/>
+      <c r="X12" s="340" t="n"/>
+      <c r="Y12" s="340" t="n"/>
+      <c r="Z12" s="340" t="n"/>
+      <c r="AA12" s="340" t="n"/>
+      <c r="AB12" s="340" t="n"/>
+      <c r="AC12" s="340" t="n"/>
+      <c r="AD12" s="340" t="n"/>
+      <c r="AE12" s="340" t="n"/>
+      <c r="AF12" s="340" t="n"/>
+      <c r="AG12" s="340" t="n"/>
+      <c r="AH12" s="341" t="n"/>
+      <c r="AI12" s="316" t="n"/>
+      <c r="AJ12" s="316" t="n"/>
+    </row>
+    <row r="13" ht="15" customFormat="1" customHeight="1" s="331">
+      <c r="A13" s="316" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B13" s="343" t="n"/>
-      <c r="C13" s="343" t="n"/>
-      <c r="D13" s="343" t="n"/>
-      <c r="E13" s="343" t="n"/>
-      <c r="F13" s="343" t="n"/>
-      <c r="G13" s="343" t="n"/>
-      <c r="H13" s="343" t="n"/>
-      <c r="I13" s="343" t="n"/>
-      <c r="J13" s="343" t="n"/>
-      <c r="K13" s="343" t="n"/>
-      <c r="L13" s="343" t="n"/>
-      <c r="M13" s="343" t="n"/>
-      <c r="N13" s="343" t="n"/>
-      <c r="O13" s="343" t="n"/>
-      <c r="P13" s="343" t="n"/>
-      <c r="Q13" s="343" t="n"/>
-      <c r="R13" s="343" t="n"/>
-      <c r="S13" s="343" t="n"/>
-      <c r="T13" s="343" t="n"/>
-      <c r="U13" s="343" t="n"/>
-      <c r="V13" s="343" t="n"/>
-      <c r="W13" s="343" t="n"/>
-      <c r="X13" s="343" t="n"/>
-      <c r="Y13" s="343" t="n"/>
-      <c r="Z13" s="343" t="n"/>
-      <c r="AA13" s="343" t="n"/>
-      <c r="AB13" s="343" t="n"/>
-      <c r="AC13" s="343" t="n"/>
-      <c r="AD13" s="343" t="n"/>
-      <c r="AE13" s="343" t="n"/>
-      <c r="AF13" s="343" t="n"/>
-      <c r="AG13" s="343" t="n"/>
-      <c r="AH13" s="344" t="n"/>
-      <c r="AI13" s="336" t="n">
+      <c r="B13" s="340" t="n"/>
+      <c r="C13" s="340" t="n"/>
+      <c r="D13" s="340" t="n"/>
+      <c r="E13" s="340" t="n"/>
+      <c r="F13" s="340" t="n"/>
+      <c r="G13" s="340" t="n"/>
+      <c r="H13" s="340" t="n"/>
+      <c r="I13" s="340" t="n"/>
+      <c r="J13" s="340" t="n"/>
+      <c r="K13" s="340" t="n"/>
+      <c r="L13" s="340" t="n"/>
+      <c r="M13" s="340" t="n"/>
+      <c r="N13" s="340" t="n"/>
+      <c r="O13" s="340" t="n"/>
+      <c r="P13" s="340" t="n"/>
+      <c r="Q13" s="340" t="n"/>
+      <c r="R13" s="340" t="n"/>
+      <c r="S13" s="340" t="n"/>
+      <c r="T13" s="340" t="n"/>
+      <c r="U13" s="340" t="n"/>
+      <c r="V13" s="340" t="n"/>
+      <c r="W13" s="340" t="n"/>
+      <c r="X13" s="340" t="n"/>
+      <c r="Y13" s="340" t="n"/>
+      <c r="Z13" s="340" t="n"/>
+      <c r="AA13" s="340" t="n"/>
+      <c r="AB13" s="340" t="n"/>
+      <c r="AC13" s="340" t="n"/>
+      <c r="AD13" s="340" t="n"/>
+      <c r="AE13" s="340" t="n"/>
+      <c r="AF13" s="340" t="n"/>
+      <c r="AG13" s="340" t="n"/>
+      <c r="AH13" s="341" t="n"/>
+      <c r="AI13" s="334" t="n">
         <v>76</v>
       </c>
-      <c r="AJ13" s="336" t="n">
+      <c r="AJ13" s="334" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="15" customFormat="1" customHeight="1" s="333">
-      <c r="A14" s="340" t="n"/>
-      <c r="B14" s="345" t="n"/>
-      <c r="C14" s="345" t="n"/>
-      <c r="D14" s="345" t="n"/>
-      <c r="E14" s="345" t="n"/>
-      <c r="F14" s="345" t="n"/>
-      <c r="G14" s="345" t="n"/>
-      <c r="H14" s="345" t="n"/>
-      <c r="I14" s="346" t="n"/>
-      <c r="J14" s="340" t="n"/>
-      <c r="K14" s="345" t="n"/>
-      <c r="L14" s="345" t="n"/>
-      <c r="M14" s="345" t="n"/>
-      <c r="N14" s="345" t="n"/>
-      <c r="O14" s="345" t="n"/>
-      <c r="P14" s="345" t="n"/>
-      <c r="Q14" s="345" t="n"/>
-      <c r="R14" s="345" t="n"/>
-      <c r="S14" s="345" t="n"/>
-      <c r="T14" s="345" t="n"/>
-      <c r="U14" s="345" t="n"/>
-      <c r="V14" s="345" t="n"/>
-      <c r="W14" s="345" t="n"/>
-      <c r="X14" s="345" t="n"/>
-      <c r="Y14" s="346" t="n"/>
-      <c r="Z14" s="340" t="n"/>
-      <c r="AA14" s="345" t="n"/>
-      <c r="AB14" s="345" t="n"/>
-      <c r="AC14" s="345" t="n"/>
-      <c r="AD14" s="345" t="n"/>
-      <c r="AE14" s="345" t="n"/>
-      <c r="AF14" s="345" t="n"/>
-      <c r="AG14" s="345" t="n"/>
-      <c r="AH14" s="345" t="n"/>
-      <c r="AI14" s="345" t="n"/>
-      <c r="AJ14" s="346" t="n"/>
-    </row>
-    <row r="15" ht="15" customFormat="1" customHeight="1" s="333">
-      <c r="A15" s="347" t="n"/>
-      <c r="I15" s="348" t="n"/>
-      <c r="J15" s="347" t="n"/>
-      <c r="Y15" s="348" t="n"/>
-      <c r="Z15" s="347" t="n"/>
-      <c r="AJ15" s="348" t="n"/>
-    </row>
-    <row r="16" ht="15" customFormat="1" customHeight="1" s="333">
-      <c r="A16" s="347" t="n"/>
-      <c r="I16" s="348" t="n"/>
-      <c r="J16" s="347" t="n"/>
-      <c r="Y16" s="348" t="n"/>
-      <c r="Z16" s="347" t="n"/>
-      <c r="AJ16" s="348" t="n"/>
-    </row>
-    <row r="17" ht="15" customFormat="1" customHeight="1" s="333">
-      <c r="A17" s="349" t="n"/>
-      <c r="B17" s="350" t="n"/>
-      <c r="C17" s="350" t="n"/>
-      <c r="D17" s="350" t="n"/>
-      <c r="E17" s="350" t="n"/>
-      <c r="F17" s="350" t="n"/>
-      <c r="G17" s="350" t="n"/>
-      <c r="H17" s="350" t="n"/>
-      <c r="I17" s="351" t="n"/>
-      <c r="J17" s="349" t="n"/>
-      <c r="K17" s="350" t="n"/>
-      <c r="L17" s="350" t="n"/>
-      <c r="M17" s="350" t="n"/>
-      <c r="N17" s="350" t="n"/>
-      <c r="O17" s="350" t="n"/>
-      <c r="P17" s="350" t="n"/>
-      <c r="Q17" s="350" t="n"/>
-      <c r="R17" s="350" t="n"/>
-      <c r="S17" s="350" t="n"/>
-      <c r="T17" s="350" t="n"/>
-      <c r="U17" s="350" t="n"/>
-      <c r="V17" s="350" t="n"/>
-      <c r="W17" s="350" t="n"/>
-      <c r="X17" s="350" t="n"/>
-      <c r="Y17" s="351" t="n"/>
-      <c r="Z17" s="349" t="n"/>
-      <c r="AA17" s="350" t="n"/>
-      <c r="AB17" s="350" t="n"/>
-      <c r="AC17" s="350" t="n"/>
-      <c r="AD17" s="350" t="n"/>
-      <c r="AE17" s="350" t="n"/>
-      <c r="AF17" s="350" t="n"/>
-      <c r="AG17" s="350" t="n"/>
-      <c r="AH17" s="350" t="n"/>
-      <c r="AI17" s="350" t="n"/>
-      <c r="AJ17" s="351" t="n"/>
-    </row>
-    <row r="18" ht="15" customFormat="1" customHeight="1" s="333">
-      <c r="A18" s="340" t="inlineStr">
+    <row r="14" ht="15" customFormat="1" customHeight="1" s="331">
+      <c r="A14" s="316" t="n"/>
+      <c r="B14" s="342" t="n"/>
+      <c r="C14" s="342" t="n"/>
+      <c r="D14" s="342" t="n"/>
+      <c r="E14" s="342" t="n"/>
+      <c r="F14" s="342" t="n"/>
+      <c r="G14" s="342" t="n"/>
+      <c r="H14" s="342" t="n"/>
+      <c r="I14" s="343" t="n"/>
+      <c r="J14" s="316" t="n"/>
+      <c r="K14" s="342" t="n"/>
+      <c r="L14" s="342" t="n"/>
+      <c r="M14" s="342" t="n"/>
+      <c r="N14" s="342" t="n"/>
+      <c r="O14" s="342" t="n"/>
+      <c r="P14" s="342" t="n"/>
+      <c r="Q14" s="342" t="n"/>
+      <c r="R14" s="342" t="n"/>
+      <c r="S14" s="342" t="n"/>
+      <c r="T14" s="342" t="n"/>
+      <c r="U14" s="342" t="n"/>
+      <c r="V14" s="342" t="n"/>
+      <c r="W14" s="342" t="n"/>
+      <c r="X14" s="342" t="n"/>
+      <c r="Y14" s="343" t="n"/>
+      <c r="Z14" s="316" t="n"/>
+      <c r="AA14" s="342" t="n"/>
+      <c r="AB14" s="342" t="n"/>
+      <c r="AC14" s="342" t="n"/>
+      <c r="AD14" s="342" t="n"/>
+      <c r="AE14" s="342" t="n"/>
+      <c r="AF14" s="342" t="n"/>
+      <c r="AG14" s="342" t="n"/>
+      <c r="AH14" s="342" t="n"/>
+      <c r="AI14" s="342" t="n"/>
+      <c r="AJ14" s="343" t="n"/>
+    </row>
+    <row r="15" ht="15" customFormat="1" customHeight="1" s="331">
+      <c r="A15" s="344" t="n"/>
+      <c r="I15" s="345" t="n"/>
+      <c r="J15" s="344" t="n"/>
+      <c r="Y15" s="345" t="n"/>
+      <c r="Z15" s="344" t="n"/>
+      <c r="AJ15" s="345" t="n"/>
+    </row>
+    <row r="16" ht="15" customFormat="1" customHeight="1" s="331">
+      <c r="A16" s="344" t="n"/>
+      <c r="I16" s="345" t="n"/>
+      <c r="J16" s="344" t="n"/>
+      <c r="Y16" s="345" t="n"/>
+      <c r="Z16" s="344" t="n"/>
+      <c r="AJ16" s="345" t="n"/>
+    </row>
+    <row r="17" ht="15" customFormat="1" customHeight="1" s="331">
+      <c r="A17" s="346" t="n"/>
+      <c r="B17" s="347" t="n"/>
+      <c r="C17" s="347" t="n"/>
+      <c r="D17" s="347" t="n"/>
+      <c r="E17" s="347" t="n"/>
+      <c r="F17" s="347" t="n"/>
+      <c r="G17" s="347" t="n"/>
+      <c r="H17" s="347" t="n"/>
+      <c r="I17" s="348" t="n"/>
+      <c r="J17" s="346" t="n"/>
+      <c r="K17" s="347" t="n"/>
+      <c r="L17" s="347" t="n"/>
+      <c r="M17" s="347" t="n"/>
+      <c r="N17" s="347" t="n"/>
+      <c r="O17" s="347" t="n"/>
+      <c r="P17" s="347" t="n"/>
+      <c r="Q17" s="347" t="n"/>
+      <c r="R17" s="347" t="n"/>
+      <c r="S17" s="347" t="n"/>
+      <c r="T17" s="347" t="n"/>
+      <c r="U17" s="347" t="n"/>
+      <c r="V17" s="347" t="n"/>
+      <c r="W17" s="347" t="n"/>
+      <c r="X17" s="347" t="n"/>
+      <c r="Y17" s="348" t="n"/>
+      <c r="Z17" s="346" t="n"/>
+      <c r="AA17" s="347" t="n"/>
+      <c r="AB17" s="347" t="n"/>
+      <c r="AC17" s="347" t="n"/>
+      <c r="AD17" s="347" t="n"/>
+      <c r="AE17" s="347" t="n"/>
+      <c r="AF17" s="347" t="n"/>
+      <c r="AG17" s="347" t="n"/>
+      <c r="AH17" s="347" t="n"/>
+      <c r="AI17" s="347" t="n"/>
+      <c r="AJ17" s="348" t="n"/>
+    </row>
+    <row r="18" ht="15" customFormat="1" customHeight="1" s="331">
+      <c r="A18" s="316" t="inlineStr">
         <is>
           <t>PREPARED BY</t>
         </is>
       </c>
-      <c r="B18" s="343" t="n"/>
-      <c r="C18" s="343" t="n"/>
-      <c r="D18" s="343" t="n"/>
-      <c r="E18" s="343" t="n"/>
-      <c r="F18" s="343" t="n"/>
-      <c r="G18" s="343" t="n"/>
-      <c r="H18" s="343" t="n"/>
-      <c r="I18" s="344" t="n"/>
-      <c r="J18" s="340" t="inlineStr">
+      <c r="B18" s="340" t="n"/>
+      <c r="C18" s="340" t="n"/>
+      <c r="D18" s="340" t="n"/>
+      <c r="E18" s="340" t="n"/>
+      <c r="F18" s="340" t="n"/>
+      <c r="G18" s="340" t="n"/>
+      <c r="H18" s="340" t="n"/>
+      <c r="I18" s="341" t="n"/>
+      <c r="J18" s="316" t="inlineStr">
         <is>
           <t>ACCEPTED BY CONTRACTOR</t>
         </is>
       </c>
-      <c r="K18" s="343" t="n"/>
-      <c r="L18" s="343" t="n"/>
-      <c r="M18" s="343" t="n"/>
-      <c r="N18" s="343" t="n"/>
-      <c r="O18" s="343" t="n"/>
-      <c r="P18" s="343" t="n"/>
-      <c r="Q18" s="343" t="n"/>
-      <c r="R18" s="343" t="n"/>
-      <c r="S18" s="343" t="n"/>
-      <c r="T18" s="343" t="n"/>
-      <c r="U18" s="343" t="n"/>
-      <c r="V18" s="343" t="n"/>
-      <c r="W18" s="343" t="n"/>
-      <c r="X18" s="343" t="n"/>
-      <c r="Y18" s="344" t="n"/>
-      <c r="Z18" s="340" t="inlineStr">
+      <c r="K18" s="340" t="n"/>
+      <c r="L18" s="340" t="n"/>
+      <c r="M18" s="340" t="n"/>
+      <c r="N18" s="340" t="n"/>
+      <c r="O18" s="340" t="n"/>
+      <c r="P18" s="340" t="n"/>
+      <c r="Q18" s="340" t="n"/>
+      <c r="R18" s="340" t="n"/>
+      <c r="S18" s="340" t="n"/>
+      <c r="T18" s="340" t="n"/>
+      <c r="U18" s="340" t="n"/>
+      <c r="V18" s="340" t="n"/>
+      <c r="W18" s="340" t="n"/>
+      <c r="X18" s="340" t="n"/>
+      <c r="Y18" s="341" t="n"/>
+      <c r="Z18" s="316" t="inlineStr">
         <is>
           <t>HEAD OF DEPT.</t>
         </is>
       </c>
-      <c r="AA18" s="343" t="n"/>
-      <c r="AB18" s="343" t="n"/>
-      <c r="AC18" s="343" t="n"/>
-      <c r="AD18" s="343" t="n"/>
-      <c r="AE18" s="343" t="n"/>
-      <c r="AF18" s="343" t="n"/>
-      <c r="AG18" s="343" t="n"/>
-      <c r="AH18" s="343" t="n"/>
-      <c r="AI18" s="343" t="n"/>
-      <c r="AJ18" s="344" t="n"/>
-    </row>
-    <row r="19" ht="15" customFormat="1" customHeight="1" s="333"/>
-    <row r="20" ht="15" customFormat="1" customHeight="1" s="333"/>
-    <row r="21" ht="15" customFormat="1" customHeight="1" s="333"/>
-    <row r="22" ht="15" customFormat="1" customHeight="1" s="333"/>
-    <row r="23" ht="15" customFormat="1" customHeight="1" s="333"/>
-    <row r="24" ht="15" customFormat="1" customHeight="1" s="333"/>
-    <row r="25" ht="15" customFormat="1" customHeight="1" s="333"/>
-    <row r="26" ht="15" customFormat="1" customHeight="1" s="333"/>
-    <row r="27" ht="15" customFormat="1" customHeight="1" s="333"/>
-    <row r="28" ht="15" customFormat="1" customHeight="1" s="333"/>
-    <row r="29" ht="15" customFormat="1" customHeight="1" s="333"/>
-    <row r="30" ht="15" customFormat="1" customHeight="1" s="333"/>
-    <row r="31" ht="15" customFormat="1" customHeight="1" s="333"/>
-    <row r="32" ht="15" customFormat="1" customHeight="1" s="333"/>
-    <row r="33" ht="15" customFormat="1" customHeight="1" s="333"/>
-    <row r="34" ht="15" customFormat="1" customHeight="1" s="333"/>
-    <row r="35" ht="15" customFormat="1" customHeight="1" s="333"/>
-    <row r="36" ht="15" customFormat="1" customHeight="1" s="333"/>
-    <row r="37" ht="15" customFormat="1" customHeight="1" s="333"/>
-    <row r="38" ht="15" customFormat="1" customHeight="1" s="333"/>
-    <row r="39" ht="15" customFormat="1" customHeight="1" s="333"/>
-    <row r="40" ht="15" customFormat="1" customHeight="1" s="333"/>
-    <row r="41" ht="17.25" customFormat="1" customHeight="1" s="341"/>
+      <c r="AA18" s="340" t="n"/>
+      <c r="AB18" s="340" t="n"/>
+      <c r="AC18" s="340" t="n"/>
+      <c r="AD18" s="340" t="n"/>
+      <c r="AE18" s="340" t="n"/>
+      <c r="AF18" s="340" t="n"/>
+      <c r="AG18" s="340" t="n"/>
+      <c r="AH18" s="340" t="n"/>
+      <c r="AI18" s="340" t="n"/>
+      <c r="AJ18" s="341" t="n"/>
+    </row>
+    <row r="19" ht="15" customFormat="1" customHeight="1" s="331"/>
+    <row r="20" ht="15" customFormat="1" customHeight="1" s="331"/>
+    <row r="21" ht="15" customFormat="1" customHeight="1" s="331"/>
+    <row r="22" ht="15" customFormat="1" customHeight="1" s="331"/>
+    <row r="23" ht="15" customFormat="1" customHeight="1" s="331"/>
+    <row r="24" ht="15" customFormat="1" customHeight="1" s="331"/>
+    <row r="25" ht="15" customFormat="1" customHeight="1" s="331"/>
+    <row r="26" ht="15" customFormat="1" customHeight="1" s="331"/>
+    <row r="27" ht="15" customFormat="1" customHeight="1" s="331"/>
+    <row r="28" ht="15" customFormat="1" customHeight="1" s="331"/>
+    <row r="29" ht="15" customFormat="1" customHeight="1" s="331"/>
+    <row r="30" ht="15" customFormat="1" customHeight="1" s="331"/>
+    <row r="31" ht="15" customFormat="1" customHeight="1" s="331"/>
+    <row r="32" ht="15" customFormat="1" customHeight="1" s="331"/>
+    <row r="33" ht="15" customFormat="1" customHeight="1" s="331"/>
+    <row r="34" ht="15" customFormat="1" customHeight="1" s="331"/>
+    <row r="35" ht="15" customFormat="1" customHeight="1" s="331"/>
+    <row r="36" ht="15" customFormat="1" customHeight="1" s="331"/>
+    <row r="37" ht="15" customFormat="1" customHeight="1" s="331"/>
+    <row r="38" ht="15" customFormat="1" customHeight="1" s="331"/>
+    <row r="39" ht="15" customFormat="1" customHeight="1" s="331"/>
+    <row r="40" ht="15" customFormat="1" customHeight="1" s="331"/>
+    <row r="41" ht="17.25" customFormat="1" customHeight="1" s="338"/>
     <row r="42" ht="12.75" customFormat="1" customHeight="1" s="310"/>
     <row r="43" ht="12.75" customFormat="1" customHeight="1" s="310"/>
     <row r="44" ht="8.25" customFormat="1" customHeight="1" s="310"/>
     <row r="45" ht="10.5" customFormat="1" customHeight="1" s="310"/>
-    <row r="46" ht="14.25" customFormat="1" customHeight="1" s="341"/>
-    <row r="47" ht="12.75" customHeight="1" s="342"/>
+    <row r="46" ht="14.25" customFormat="1" customHeight="1" s="338"/>
+    <row r="47" ht="12.75" customHeight="1" s="339"/>
   </sheetData>
   <mergeCells count="40">
     <mergeCell ref="A42:I45"/>
@@ -3551,48 +3551,48 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="6.15" customWidth="1" style="342" min="1" max="1"/>
-    <col width="25.2" customWidth="1" style="342" min="2" max="2"/>
-    <col width="7.71" customWidth="1" style="342" min="3" max="3"/>
-    <col width="6.86" customWidth="1" style="342" min="4" max="4"/>
-    <col width="9.140000000000001" customWidth="1" style="342" min="5" max="5"/>
-    <col width="11.29" customWidth="1" style="342" min="6" max="6"/>
-    <col width="7.42" customWidth="1" style="342" min="7" max="7"/>
-    <col width="9.85" customWidth="1" style="342" min="8" max="8"/>
-    <col width="9.140000000000001" customWidth="1" style="342" min="9" max="9"/>
-    <col width="8.42" customWidth="1" style="342" min="10" max="10"/>
-    <col width="9.140000000000001" customWidth="1" style="342" min="11" max="11"/>
-    <col width="10" customWidth="1" style="342" min="12" max="12"/>
-    <col width="9.289999999999999" customWidth="1" style="342" min="13" max="13"/>
-    <col width="13" customWidth="1" style="342" min="14" max="14"/>
-    <col width="9.710000000000001" customWidth="1" style="342" min="15" max="15"/>
-    <col width="10.58" customWidth="1" style="342" min="16" max="16"/>
-    <col width="10.29" customWidth="1" style="342" min="17" max="17"/>
-    <col width="10.14" customWidth="1" style="342" min="18" max="18"/>
+    <col width="6.15" customWidth="1" style="339" min="1" max="1"/>
+    <col width="25.2" customWidth="1" style="339" min="2" max="2"/>
+    <col width="7.71" customWidth="1" style="339" min="3" max="3"/>
+    <col width="6.86" customWidth="1" style="339" min="4" max="4"/>
+    <col width="9.140000000000001" customWidth="1" style="339" min="5" max="5"/>
+    <col width="11.29" customWidth="1" style="339" min="6" max="6"/>
+    <col width="7.42" customWidth="1" style="339" min="7" max="7"/>
+    <col width="9.85" customWidth="1" style="339" min="8" max="8"/>
+    <col width="9.140000000000001" customWidth="1" style="339" min="9" max="9"/>
+    <col width="8.42" customWidth="1" style="339" min="10" max="10"/>
+    <col width="9.140000000000001" customWidth="1" style="339" min="11" max="11"/>
+    <col width="10" customWidth="1" style="339" min="12" max="12"/>
+    <col width="9.289999999999999" customWidth="1" style="339" min="13" max="13"/>
+    <col width="13" customWidth="1" style="339" min="14" max="14"/>
+    <col width="9.710000000000001" customWidth="1" style="339" min="15" max="15"/>
+    <col width="10.58" customWidth="1" style="339" min="16" max="16"/>
+    <col width="10.29" customWidth="1" style="339" min="17" max="17"/>
+    <col width="10.14" customWidth="1" style="339" min="18" max="18"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" s="342">
-      <c r="A1" s="352" t="inlineStr">
+    <row r="1" ht="18.75" customHeight="1" s="339">
+      <c r="A1" s="349" t="inlineStr">
         <is>
           <t xml:space="preserve">PF AND ESI CALCULATION DETAILS </t>
         </is>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1" s="342">
-      <c r="A2" s="354" t="inlineStr">
+    <row r="2" ht="14.25" customHeight="1" s="339">
+      <c r="A2" s="351" t="inlineStr">
         <is>
           <t>Due Wage Month:Feb-2024 from 01-02-2024 to 29-02-2024</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1" s="342">
-      <c r="A3" s="354" t="inlineStr">
+    <row r="3" ht="18.75" customHeight="1" s="339">
+      <c r="A3" s="351" t="inlineStr">
         <is>
           <t>Name of Contractor :  M/S SPRYSOFT TECHNOLOGIES PRIVATE LIMITED, HYDERABAD.</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="16.5" customHeight="1" s="342">
+    <row r="4" ht="16.5" customHeight="1" s="339">
       <c r="A4" s="105" t="inlineStr">
         <is>
           <t>Sl NO</t>
@@ -3639,33 +3639,33 @@
           <t>Employee Contribution</t>
         </is>
       </c>
-      <c r="J4" s="316" t="n"/>
-      <c r="K4" s="316" t="n"/>
-      <c r="L4" s="317" t="n"/>
+      <c r="J4" s="363" t="n"/>
+      <c r="K4" s="363" t="n"/>
+      <c r="L4" s="364" t="n"/>
       <c r="M4" s="105" t="inlineStr">
         <is>
           <t>Employer</t>
         </is>
       </c>
-      <c r="N4" s="316" t="n"/>
-      <c r="O4" s="316" t="n"/>
-      <c r="P4" s="316" t="n"/>
-      <c r="Q4" s="317" t="n"/>
+      <c r="N4" s="363" t="n"/>
+      <c r="O4" s="363" t="n"/>
+      <c r="P4" s="363" t="n"/>
+      <c r="Q4" s="364" t="n"/>
       <c r="R4" s="105" t="inlineStr">
         <is>
           <t>Net Pay (Pay Day)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="33" customHeight="1" s="342">
-      <c r="A5" s="366" t="n"/>
-      <c r="B5" s="366" t="n"/>
-      <c r="C5" s="366" t="n"/>
-      <c r="D5" s="366" t="n"/>
-      <c r="E5" s="366" t="n"/>
-      <c r="F5" s="366" t="n"/>
-      <c r="G5" s="366" t="n"/>
-      <c r="H5" s="366" t="n"/>
+    <row r="5" ht="33" customHeight="1" s="339">
+      <c r="A5" s="365" t="n"/>
+      <c r="B5" s="365" t="n"/>
+      <c r="C5" s="365" t="n"/>
+      <c r="D5" s="365" t="n"/>
+      <c r="E5" s="365" t="n"/>
+      <c r="F5" s="365" t="n"/>
+      <c r="G5" s="365" t="n"/>
+      <c r="H5" s="365" t="n"/>
       <c r="I5" s="106" t="inlineStr">
         <is>
           <t>EPF
@@ -3716,406 +3716,406 @@
           <t>TOTAL (EPF + ESIC + EDLI)</t>
         </is>
       </c>
-      <c r="R5" s="366" t="n"/>
-    </row>
-    <row r="6" ht="18.75" customHeight="1" s="342">
-      <c r="A6" s="336" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" s="359" t="inlineStr">
+      <c r="R5" s="365" t="n"/>
+    </row>
+    <row r="6" ht="18.75" customHeight="1" s="339">
+      <c r="A6" s="334" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="356" t="inlineStr">
         <is>
           <t>NITYA SUNDAR MUDULI</t>
         </is>
       </c>
-      <c r="C6" s="360" t="n">
+      <c r="C6" s="357" t="n">
         <v>26</v>
       </c>
-      <c r="D6" s="360" t="n">
+      <c r="D6" s="357" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="360" t="n">
+      <c r="E6" s="357" t="n">
         <v>709</v>
       </c>
-      <c r="F6" s="360" t="n">
+      <c r="F6" s="357" t="n">
         <v>18434</v>
       </c>
-      <c r="G6" s="360" t="n">
+      <c r="G6" s="357" t="n">
         <v>0</v>
       </c>
-      <c r="H6" s="360" t="n">
+      <c r="H6" s="357" t="n">
         <v>15000</v>
       </c>
-      <c r="I6" s="360" t="n">
+      <c r="I6" s="357" t="n">
         <v>1800</v>
       </c>
-      <c r="J6" s="360" t="n">
+      <c r="J6" s="357" t="n">
         <v>138.26</v>
       </c>
-      <c r="K6" s="360" t="n">
+      <c r="K6" s="357" t="n">
         <v>150</v>
       </c>
-      <c r="L6" s="360" t="n">
+      <c r="L6" s="357" t="n">
         <v>1938.26</v>
       </c>
-      <c r="M6" s="360" t="n">
+      <c r="M6" s="357" t="n">
         <v>1875</v>
       </c>
-      <c r="N6" s="360" t="n">
+      <c r="N6" s="357" t="n">
         <v>75</v>
       </c>
-      <c r="O6" s="360" t="n">
+      <c r="O6" s="357" t="n">
         <v>1950</v>
       </c>
-      <c r="P6" s="360" t="n">
+      <c r="P6" s="357" t="n">
         <v>599.1</v>
       </c>
-      <c r="Q6" s="360" t="n">
+      <c r="Q6" s="357" t="n">
         <v>2549.1</v>
       </c>
-      <c r="R6" s="360" t="n">
+      <c r="R6" s="357" t="n">
         <v>16345.74</v>
       </c>
     </row>
-    <row r="7" ht="18.75" customHeight="1" s="342">
-      <c r="A7" s="339" t="inlineStr"/>
-      <c r="B7" s="361" t="inlineStr">
+    <row r="7" ht="18.75" customHeight="1" s="339">
+      <c r="A7" s="337" t="inlineStr"/>
+      <c r="B7" s="358" t="inlineStr">
         <is>
           <t>SKILLED TOTAL</t>
         </is>
       </c>
-      <c r="C7" s="362" t="n">
+      <c r="C7" s="359" t="n">
         <v>26</v>
       </c>
-      <c r="D7" s="362" t="n">
+      <c r="D7" s="359" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="362" t="inlineStr"/>
-      <c r="F7" s="362" t="n">
+      <c r="E7" s="359" t="inlineStr"/>
+      <c r="F7" s="359" t="n">
         <v>18434</v>
       </c>
-      <c r="G7" s="362" t="n">
+      <c r="G7" s="359" t="n">
         <v>0</v>
       </c>
-      <c r="H7" s="362" t="n">
+      <c r="H7" s="359" t="n">
         <v>15000</v>
       </c>
-      <c r="I7" s="362" t="n">
+      <c r="I7" s="359" t="n">
         <v>1800</v>
       </c>
-      <c r="J7" s="362" t="n">
+      <c r="J7" s="359" t="n">
         <v>138.26</v>
       </c>
-      <c r="K7" s="362" t="n">
+      <c r="K7" s="359" t="n">
         <v>150</v>
       </c>
-      <c r="L7" s="362" t="n">
+      <c r="L7" s="359" t="n">
         <v>1938.26</v>
       </c>
-      <c r="M7" s="362" t="n">
+      <c r="M7" s="359" t="n">
         <v>1875</v>
       </c>
-      <c r="N7" s="362" t="n">
+      <c r="N7" s="359" t="n">
         <v>75</v>
       </c>
-      <c r="O7" s="362" t="n">
+      <c r="O7" s="359" t="n">
         <v>1950</v>
       </c>
-      <c r="P7" s="362" t="n">
+      <c r="P7" s="359" t="n">
         <v>599.1</v>
       </c>
-      <c r="Q7" s="362" t="n">
+      <c r="Q7" s="359" t="n">
         <v>2549.1</v>
       </c>
-      <c r="R7" s="362" t="n">
+      <c r="R7" s="359" t="n">
         <v>16345.74</v>
       </c>
     </row>
-    <row r="8" ht="18.75" customHeight="1" s="342">
-      <c r="A8" s="336" t="n">
+    <row r="8" ht="18.75" customHeight="1" s="339">
+      <c r="A8" s="334" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="359" t="inlineStr">
+      <c r="B8" s="356" t="inlineStr">
         <is>
           <t>JAGANNATH SAHU</t>
         </is>
       </c>
-      <c r="C8" s="360" t="n">
+      <c r="C8" s="357" t="n">
         <v>25.5</v>
       </c>
-      <c r="D8" s="360" t="n">
+      <c r="D8" s="357" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="360" t="n">
+      <c r="E8" s="357" t="n">
         <v>589</v>
       </c>
-      <c r="F8" s="360" t="n">
+      <c r="F8" s="357" t="n">
         <v>15019.5</v>
       </c>
-      <c r="G8" s="360" t="n">
+      <c r="G8" s="357" t="n">
         <v>0</v>
       </c>
-      <c r="H8" s="360" t="n">
+      <c r="H8" s="357" t="n">
         <v>15000</v>
       </c>
-      <c r="I8" s="360" t="n">
+      <c r="I8" s="357" t="n">
         <v>1800</v>
       </c>
-      <c r="J8" s="360" t="n">
+      <c r="J8" s="357" t="n">
         <v>112.65</v>
       </c>
-      <c r="K8" s="360" t="n">
+      <c r="K8" s="357" t="n">
         <v>150</v>
       </c>
-      <c r="L8" s="360" t="n">
+      <c r="L8" s="357" t="n">
         <v>1912.65</v>
       </c>
-      <c r="M8" s="360" t="n">
+      <c r="M8" s="357" t="n">
         <v>1875</v>
       </c>
-      <c r="N8" s="360" t="n">
+      <c r="N8" s="357" t="n">
         <v>75</v>
       </c>
-      <c r="O8" s="360" t="n">
+      <c r="O8" s="357" t="n">
         <v>1950</v>
       </c>
-      <c r="P8" s="360" t="n">
+      <c r="P8" s="357" t="n">
         <v>488.13</v>
       </c>
-      <c r="Q8" s="360" t="n">
+      <c r="Q8" s="357" t="n">
         <v>2438.13</v>
       </c>
-      <c r="R8" s="360" t="n">
+      <c r="R8" s="357" t="n">
         <v>12956.85</v>
       </c>
     </row>
-    <row r="9" ht="18.75" customHeight="1" s="342">
-      <c r="A9" s="339" t="inlineStr"/>
-      <c r="B9" s="361" t="inlineStr">
+    <row r="9" ht="18.75" customHeight="1" s="339">
+      <c r="A9" s="337" t="inlineStr"/>
+      <c r="B9" s="358" t="inlineStr">
         <is>
           <t>SEMI-SKILLED TOTAL</t>
         </is>
       </c>
-      <c r="C9" s="362" t="n">
+      <c r="C9" s="359" t="n">
         <v>25.5</v>
       </c>
-      <c r="D9" s="362" t="n">
+      <c r="D9" s="359" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="362" t="inlineStr"/>
-      <c r="F9" s="362" t="n">
+      <c r="E9" s="359" t="inlineStr"/>
+      <c r="F9" s="359" t="n">
         <v>15019.5</v>
       </c>
-      <c r="G9" s="362" t="n">
+      <c r="G9" s="359" t="n">
         <v>0</v>
       </c>
-      <c r="H9" s="362" t="n">
+      <c r="H9" s="359" t="n">
         <v>15000</v>
       </c>
-      <c r="I9" s="362" t="n">
+      <c r="I9" s="359" t="n">
         <v>1800</v>
       </c>
-      <c r="J9" s="362" t="n">
+      <c r="J9" s="359" t="n">
         <v>112.65</v>
       </c>
-      <c r="K9" s="362" t="n">
+      <c r="K9" s="359" t="n">
         <v>150</v>
       </c>
-      <c r="L9" s="362" t="n">
+      <c r="L9" s="359" t="n">
         <v>1912.65</v>
       </c>
-      <c r="M9" s="362" t="n">
+      <c r="M9" s="359" t="n">
         <v>1875</v>
       </c>
-      <c r="N9" s="362" t="n">
+      <c r="N9" s="359" t="n">
         <v>75</v>
       </c>
-      <c r="O9" s="362" t="n">
+      <c r="O9" s="359" t="n">
         <v>1950</v>
       </c>
-      <c r="P9" s="362" t="n">
+      <c r="P9" s="359" t="n">
         <v>488.13</v>
       </c>
-      <c r="Q9" s="362" t="n">
+      <c r="Q9" s="359" t="n">
         <v>2438.13</v>
       </c>
-      <c r="R9" s="362" t="n">
+      <c r="R9" s="359" t="n">
         <v>12956.85</v>
       </c>
     </row>
-    <row r="10" ht="18.75" customHeight="1" s="342">
-      <c r="A10" s="336" t="n">
+    <row r="10" ht="18.75" customHeight="1" s="339">
+      <c r="A10" s="334" t="n">
         <v>3</v>
       </c>
-      <c r="B10" s="359" t="inlineStr">
+      <c r="B10" s="356" t="inlineStr">
         <is>
           <t>DANA MAJHI</t>
         </is>
       </c>
-      <c r="C10" s="360" t="n">
+      <c r="C10" s="357" t="n">
         <v>24.5</v>
       </c>
-      <c r="D10" s="360" t="n">
+      <c r="D10" s="357" t="n">
         <v>0</v>
       </c>
-      <c r="E10" s="360" t="n">
+      <c r="E10" s="357" t="n">
         <v>504</v>
       </c>
-      <c r="F10" s="360" t="n">
+      <c r="F10" s="357" t="n">
         <v>12348</v>
       </c>
-      <c r="G10" s="360" t="n">
+      <c r="G10" s="357" t="n">
         <v>0</v>
       </c>
-      <c r="H10" s="360" t="n">
+      <c r="H10" s="357" t="n">
         <v>12348</v>
       </c>
-      <c r="I10" s="360" t="n">
+      <c r="I10" s="357" t="n">
         <v>1481.76</v>
       </c>
-      <c r="J10" s="360" t="n">
+      <c r="J10" s="357" t="n">
         <v>92.61</v>
       </c>
-      <c r="K10" s="360" t="n">
+      <c r="K10" s="357" t="n">
         <v>0</v>
       </c>
-      <c r="L10" s="360" t="n">
+      <c r="L10" s="357" t="n">
         <v>1574.37</v>
       </c>
-      <c r="M10" s="360" t="n">
+      <c r="M10" s="357" t="n">
         <v>1543.5</v>
       </c>
-      <c r="N10" s="360" t="n">
+      <c r="N10" s="357" t="n">
         <v>61.74</v>
       </c>
-      <c r="O10" s="360" t="n">
+      <c r="O10" s="357" t="n">
         <v>1605.24</v>
       </c>
-      <c r="P10" s="360" t="n">
+      <c r="P10" s="357" t="n">
         <v>401.31</v>
       </c>
-      <c r="Q10" s="360" t="n">
+      <c r="Q10" s="357" t="n">
         <v>2006.55</v>
       </c>
-      <c r="R10" s="360" t="n">
+      <c r="R10" s="357" t="n">
         <v>10773.63</v>
       </c>
     </row>
-    <row r="11" ht="18.75" customHeight="1" s="342">
-      <c r="A11" s="339" t="inlineStr"/>
-      <c r="B11" s="361" t="inlineStr">
+    <row r="11" ht="18.75" customHeight="1" s="339">
+      <c r="A11" s="337" t="inlineStr"/>
+      <c r="B11" s="358" t="inlineStr">
         <is>
           <t>UNSKILLED TOTAL</t>
         </is>
       </c>
-      <c r="C11" s="362" t="n">
+      <c r="C11" s="359" t="n">
         <v>24.5</v>
       </c>
-      <c r="D11" s="362" t="n">
+      <c r="D11" s="359" t="n">
         <v>0</v>
       </c>
-      <c r="E11" s="362" t="inlineStr"/>
-      <c r="F11" s="362" t="n">
+      <c r="E11" s="359" t="inlineStr"/>
+      <c r="F11" s="359" t="n">
         <v>12348</v>
       </c>
-      <c r="G11" s="362" t="n">
+      <c r="G11" s="359" t="n">
         <v>0</v>
       </c>
-      <c r="H11" s="362" t="n">
+      <c r="H11" s="359" t="n">
         <v>12348</v>
       </c>
-      <c r="I11" s="362" t="n">
+      <c r="I11" s="359" t="n">
         <v>1481.76</v>
       </c>
-      <c r="J11" s="362" t="n">
+      <c r="J11" s="359" t="n">
         <v>92.61</v>
       </c>
-      <c r="K11" s="362" t="n">
+      <c r="K11" s="359" t="n">
         <v>0</v>
       </c>
-      <c r="L11" s="362" t="n">
+      <c r="L11" s="359" t="n">
         <v>1574.37</v>
       </c>
-      <c r="M11" s="362" t="n">
+      <c r="M11" s="359" t="n">
         <v>1543.5</v>
       </c>
-      <c r="N11" s="362" t="n">
+      <c r="N11" s="359" t="n">
         <v>61.74</v>
       </c>
-      <c r="O11" s="362" t="n">
+      <c r="O11" s="359" t="n">
         <v>1605.24</v>
       </c>
-      <c r="P11" s="362" t="n">
+      <c r="P11" s="359" t="n">
         <v>401.31</v>
       </c>
-      <c r="Q11" s="362" t="n">
+      <c r="Q11" s="359" t="n">
         <v>2006.55</v>
       </c>
-      <c r="R11" s="362" t="n">
+      <c r="R11" s="359" t="n">
         <v>10773.63</v>
       </c>
     </row>
-    <row r="12" ht="18.75" customHeight="1" s="342">
-      <c r="A12" s="363" t="inlineStr"/>
-      <c r="B12" s="364" t="inlineStr">
+    <row r="12" ht="18.75" customHeight="1" s="339">
+      <c r="A12" s="360" t="inlineStr"/>
+      <c r="B12" s="361" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="C12" s="365" t="n">
+      <c r="C12" s="362" t="n">
         <v>76</v>
       </c>
-      <c r="D12" s="365" t="n">
+      <c r="D12" s="362" t="n">
         <v>0</v>
       </c>
-      <c r="E12" s="365" t="inlineStr"/>
-      <c r="F12" s="365" t="n">
+      <c r="E12" s="362" t="inlineStr"/>
+      <c r="F12" s="362" t="n">
         <v>45801.5</v>
       </c>
-      <c r="G12" s="365" t="n">
+      <c r="G12" s="362" t="n">
         <v>0</v>
       </c>
-      <c r="H12" s="365" t="n">
+      <c r="H12" s="362" t="n">
         <v>42348</v>
       </c>
-      <c r="I12" s="365" t="n">
+      <c r="I12" s="362" t="n">
         <v>5081.76</v>
       </c>
-      <c r="J12" s="365" t="n">
+      <c r="J12" s="362" t="n">
         <v>343.52</v>
       </c>
-      <c r="K12" s="365" t="n">
+      <c r="K12" s="362" t="n">
         <v>300</v>
       </c>
-      <c r="L12" s="365" t="n">
+      <c r="L12" s="362" t="n">
         <v>5425.28</v>
       </c>
-      <c r="M12" s="365" t="n">
+      <c r="M12" s="362" t="n">
         <v>5293.5</v>
       </c>
-      <c r="N12" s="365" t="n">
+      <c r="N12" s="362" t="n">
         <v>211.74</v>
       </c>
-      <c r="O12" s="365" t="n">
+      <c r="O12" s="362" t="n">
         <v>5505.24</v>
       </c>
-      <c r="P12" s="365" t="n">
+      <c r="P12" s="362" t="n">
         <v>1488.54</v>
       </c>
-      <c r="Q12" s="365" t="n">
+      <c r="Q12" s="362" t="n">
         <v>6993.78</v>
       </c>
-      <c r="R12" s="365" t="n">
+      <c r="R12" s="362" t="n">
         <v>40076.22</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="353" t="n"/>
+      <c r="A16" s="350" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="353" t="n"/>
+      <c r="A26" s="350" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="353" t="n"/>
+      <c r="A39" s="350" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -4155,68 +4155,68 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="13" customWidth="1" style="342" min="1" max="1"/>
-    <col width="35" customWidth="1" style="342" min="2" max="2"/>
-    <col width="18.14" customWidth="1" style="342" min="3" max="3"/>
-    <col width="14.86" customWidth="1" style="342" min="4" max="4"/>
-    <col width="13" customWidth="1" style="342" min="5" max="5"/>
-    <col width="15.57" customWidth="1" style="342" min="6" max="6"/>
-    <col width="13.01" customWidth="1" style="342" min="7" max="7"/>
+    <col width="13" customWidth="1" style="339" min="1" max="1"/>
+    <col width="35" customWidth="1" style="339" min="2" max="2"/>
+    <col width="18.14" customWidth="1" style="339" min="3" max="3"/>
+    <col width="14.86" customWidth="1" style="339" min="4" max="4"/>
+    <col width="13" customWidth="1" style="339" min="5" max="5"/>
+    <col width="15.57" customWidth="1" style="339" min="6" max="6"/>
+    <col width="13.01" customWidth="1" style="339" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="342">
+    <row r="1" ht="15" customHeight="1" s="339">
       <c r="A1" s="287" t="inlineStr">
         <is>
           <t>Annexure-2</t>
         </is>
       </c>
-      <c r="B1" s="367" t="n"/>
-      <c r="C1" s="367" t="n"/>
-      <c r="D1" s="367" t="n"/>
-      <c r="E1" s="367" t="n"/>
-      <c r="F1" s="368" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="342">
+      <c r="B1" s="366" t="n"/>
+      <c r="C1" s="366" t="n"/>
+      <c r="D1" s="366" t="n"/>
+      <c r="E1" s="366" t="n"/>
+      <c r="F1" s="367" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="339">
       <c r="A2" s="288" t="inlineStr">
         <is>
           <t>Format for Wage Calculation</t>
         </is>
       </c>
-      <c r="F2" s="369" t="n"/>
-    </row>
-    <row r="3" ht="15" customHeight="1" s="342">
-      <c r="A3" s="370" t="n"/>
-      <c r="B3" s="355" t="n"/>
-      <c r="C3" s="355" t="n"/>
-      <c r="D3" s="355" t="n"/>
-      <c r="E3" s="355" t="n"/>
+      <c r="F2" s="368" t="n"/>
+    </row>
+    <row r="3" ht="15" customHeight="1" s="339">
+      <c r="A3" s="369" t="n"/>
+      <c r="B3" s="370" t="n"/>
+      <c r="C3" s="370" t="n"/>
+      <c r="D3" s="370" t="n"/>
+      <c r="E3" s="370" t="n"/>
       <c r="F3" s="371" t="n"/>
     </row>
-    <row r="4" ht="15" customHeight="1" s="342">
-      <c r="A4" s="370" t="inlineStr">
+    <row r="4" ht="15" customHeight="1" s="339">
+      <c r="A4" s="369" t="inlineStr">
         <is>
           <t>Contract Reference: 22SNCJO-373</t>
         </is>
       </c>
-      <c r="B4" s="355" t="n"/>
-      <c r="C4" s="355" t="n"/>
-      <c r="D4" s="355" t="n"/>
-      <c r="E4" s="355" t="n"/>
+      <c r="B4" s="370" t="n"/>
+      <c r="C4" s="370" t="n"/>
+      <c r="D4" s="370" t="n"/>
+      <c r="E4" s="370" t="n"/>
       <c r="F4" s="371" t="n"/>
     </row>
-    <row r="5" ht="15" customHeight="1" s="342">
-      <c r="A5" s="370" t="inlineStr">
+    <row r="5" ht="15" customHeight="1" s="339">
+      <c r="A5" s="369" t="inlineStr">
         <is>
           <t>Service Provider:  M/S SPRYSOFT TECHNOLOGIES PRIVATE LIMITED, HYDERABAD.</t>
         </is>
       </c>
-      <c r="B5" s="355" t="n"/>
-      <c r="C5" s="355" t="n"/>
-      <c r="D5" s="355" t="n"/>
-      <c r="E5" s="355" t="n"/>
+      <c r="B5" s="370" t="n"/>
+      <c r="C5" s="370" t="n"/>
+      <c r="D5" s="370" t="n"/>
+      <c r="E5" s="370" t="n"/>
       <c r="F5" s="371" t="n"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1" s="342">
+    <row r="6" ht="15.75" customHeight="1" s="339">
       <c r="A6" s="372" t="inlineStr">
         <is>
           <t>Month: Feb-2024</t>
@@ -4228,7 +4228,7 @@
       <c r="E6" s="373" t="n"/>
       <c r="F6" s="374" t="n"/>
     </row>
-    <row r="7" ht="26.25" customHeight="1" s="342">
+    <row r="7" ht="26.25" customHeight="1" s="339">
       <c r="A7" s="290" t="inlineStr">
         <is>
           <t>Sl.No</t>
@@ -4260,7 +4260,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1" s="342">
+    <row r="8" ht="15.75" customHeight="1" s="339">
       <c r="A8" s="293" t="n">
         <v>1</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>12348</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1" s="342">
+    <row r="9" ht="15.75" customHeight="1" s="339">
       <c r="A9" s="293" t="n">
         <v>2</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>15019.5</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1" s="342">
+    <row r="10" ht="15.75" customHeight="1" s="339">
       <c r="A10" s="293" t="n">
         <v>3</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>18434</v>
       </c>
     </row>
-    <row r="11" ht="26.25" customHeight="1" s="342">
+    <row r="11" ht="26.25" customHeight="1" s="339">
       <c r="A11" s="293" t="n">
         <v>4</v>
       </c>
@@ -4355,7 +4355,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1" s="342">
+    <row r="12" ht="15.75" customHeight="1" s="339">
       <c r="A12" s="293" t="n">
         <v>5</v>
       </c>
@@ -4384,7 +4384,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1" s="342">
+    <row r="13" ht="15.75" customHeight="1" s="339">
       <c r="A13" s="375" t="n">
         <v>6</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1" s="342">
+    <row r="14" ht="15.75" customHeight="1" s="339">
       <c r="A14" s="376" t="n"/>
       <c r="B14" s="376" t="n"/>
       <c r="C14" s="295" t="n">
@@ -4426,7 +4426,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1" s="342">
+    <row r="15" ht="15.75" customHeight="1" s="339">
       <c r="A15" s="377" t="n"/>
       <c r="B15" s="377" t="n"/>
       <c r="C15" s="295" t="n">
@@ -4444,7 +4444,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1" s="342">
+    <row r="16" ht="15.75" customHeight="1" s="339">
       <c r="A16" s="293" t="n">
         <v>7</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>5293.5</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1" s="342">
+    <row r="17" ht="15.75" customHeight="1" s="339">
       <c r="A17" s="293" t="n">
         <v>8</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>1488.54</v>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1" s="342">
+    <row r="18" ht="15.75" customHeight="1" s="339">
       <c r="A18" s="293" t="n">
         <v>9</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>211.74</v>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1" s="342">
+    <row r="19" ht="15.75" customHeight="1" s="339">
       <c r="A19" s="293" t="n">
         <v>10</v>
       </c>
@@ -4512,7 +4512,7 @@
       <c r="E19" s="295" t="n"/>
       <c r="F19" s="297" t="n"/>
     </row>
-    <row r="20" ht="26.25" customHeight="1" s="342">
+    <row r="20" ht="26.25" customHeight="1" s="339">
       <c r="A20" s="293" t="n">
         <v>11</v>
       </c>
@@ -4525,11 +4525,11 @@
       <c r="D20" s="295" t="n"/>
       <c r="E20" s="295" t="n"/>
       <c r="F20" s="296" t="n">
-        <v>250</v>
+        <v>1783.645</v>
       </c>
       <c r="G20" s="300" t="n"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1" s="342">
+    <row r="21" ht="15.75" customHeight="1" s="339">
       <c r="A21" s="293" t="n">
         <v>12</v>
       </c>
@@ -4544,10 +4544,10 @@
       <c r="D21" s="295" t="n"/>
       <c r="E21" s="295" t="n"/>
       <c r="F21" s="296" t="n">
-        <v>9548.150399999999</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1" s="342">
+        <v>9824.206499999998</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1" s="339">
       <c r="A22" s="302" t="inlineStr">
         <is>
           <t>A</t>
@@ -4562,10 +4562,10 @@
       <c r="D22" s="295" t="n"/>
       <c r="E22" s="295" t="n"/>
       <c r="F22" s="296" t="n">
-        <v>62593.4304</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1" s="342">
+        <v>64403.1315</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1" s="339">
       <c r="A23" s="293" t="n"/>
       <c r="B23" s="294" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1" s="342">
+    <row r="24" ht="15.75" customHeight="1" s="339">
       <c r="A24" s="293" t="n"/>
       <c r="B24" s="294" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1" s="342">
+    <row r="25" ht="15.75" customHeight="1" s="339">
       <c r="A25" s="293" t="n"/>
       <c r="B25" s="294" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" ht="26.25" customHeight="1" s="342">
+    <row r="26" ht="26.25" customHeight="1" s="339">
       <c r="A26" s="293" t="n"/>
       <c r="B26" s="294" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1" s="342">
+    <row r="27" ht="15.75" customHeight="1" s="339">
       <c r="A27" s="302" t="inlineStr">
         <is>
           <t>B</t>
@@ -4663,7 +4663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1" s="342">
+    <row r="28" ht="15.75" customHeight="1" s="339">
       <c r="A28" s="302" t="inlineStr">
         <is>
           <t>C</t>
@@ -4678,10 +4678,10 @@
       <c r="D28" s="294" t="n"/>
       <c r="E28" s="294" t="n"/>
       <c r="F28" s="303" t="n">
-        <v>62593.4304</v>
-      </c>
-    </row>
-    <row r="29" ht="39" customHeight="1" s="342">
+        <v>64403.1315</v>
+      </c>
+    </row>
+    <row r="29" ht="39" customHeight="1" s="339">
       <c r="A29" s="304" t="n"/>
       <c r="B29" s="294" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
       <c r="E29" s="294" t="n"/>
       <c r="F29" s="294" t="n"/>
     </row>
-    <row r="30" ht="39" customHeight="1" s="342">
+    <row r="30" ht="39" customHeight="1" s="339">
       <c r="A30" s="304" t="n"/>
       <c r="B30" s="294" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
       <c r="E30" s="294" t="n"/>
       <c r="F30" s="294" t="n"/>
     </row>
-    <row r="31" ht="15" customHeight="1" s="342">
+    <row r="31" ht="15" customHeight="1" s="339">
       <c r="A31" s="378" t="inlineStr">
         <is>
           <t>The following is duly certified:</t>
@@ -4717,155 +4717,155 @@
       <c r="E31" s="379" t="n"/>
       <c r="F31" s="380" t="n"/>
     </row>
-    <row r="32" ht="15" customHeight="1" s="342">
+    <row r="32" ht="15" customHeight="1" s="339">
       <c r="A32" s="381" t="n"/>
-      <c r="B32" s="355" t="n"/>
-      <c r="C32" s="355" t="n"/>
-      <c r="D32" s="355" t="n"/>
-      <c r="E32" s="355" t="n"/>
+      <c r="B32" s="370" t="n"/>
+      <c r="C32" s="370" t="n"/>
+      <c r="D32" s="370" t="n"/>
+      <c r="E32" s="370" t="n"/>
       <c r="F32" s="371" t="n"/>
     </row>
-    <row r="33" ht="14.25" customHeight="1" s="342">
+    <row r="33" ht="14.25" customHeight="1" s="339">
       <c r="A33" s="381" t="inlineStr">
         <is>
           <t>(i) ESI &amp; PF Remittance is in line with the Contract terms &amp; conditions</t>
         </is>
       </c>
-      <c r="B33" s="355" t="n"/>
-      <c r="C33" s="355" t="n"/>
-      <c r="D33" s="355" t="n"/>
-      <c r="E33" s="355" t="n"/>
+      <c r="B33" s="370" t="n"/>
+      <c r="C33" s="370" t="n"/>
+      <c r="D33" s="370" t="n"/>
+      <c r="E33" s="370" t="n"/>
       <c r="F33" s="371" t="n"/>
     </row>
-    <row r="34" ht="18" customHeight="1" s="342">
+    <row r="34" ht="18" customHeight="1" s="339">
       <c r="A34" s="381" t="inlineStr">
         <is>
           <t>(ii)Wages paid to contract manpower within timelines as per contract terms and conditions</t>
         </is>
       </c>
-      <c r="B34" s="355" t="n"/>
-      <c r="C34" s="355" t="n"/>
-      <c r="D34" s="355" t="n"/>
-      <c r="E34" s="355" t="n"/>
+      <c r="B34" s="370" t="n"/>
+      <c r="C34" s="370" t="n"/>
+      <c r="D34" s="370" t="n"/>
+      <c r="E34" s="370" t="n"/>
       <c r="F34" s="371" t="n"/>
     </row>
-    <row r="35" ht="29.25" customHeight="1" s="342">
+    <row r="35" ht="29.25" customHeight="1" s="339">
       <c r="A35" s="381" t="inlineStr">
         <is>
           <t>(iii) The above information on amount payable is in line with verified wage sheets and attendance details and all relevant documents &amp; records are maintained in Division.</t>
         </is>
       </c>
-      <c r="B35" s="355" t="n"/>
-      <c r="C35" s="355" t="n"/>
-      <c r="D35" s="355" t="n"/>
-      <c r="E35" s="355" t="n"/>
+      <c r="B35" s="370" t="n"/>
+      <c r="C35" s="370" t="n"/>
+      <c r="D35" s="370" t="n"/>
+      <c r="E35" s="370" t="n"/>
       <c r="F35" s="371" t="n"/>
     </row>
-    <row r="36" ht="15" customHeight="1" s="342">
+    <row r="36" ht="15" customHeight="1" s="339">
       <c r="A36" s="381" t="n"/>
-      <c r="B36" s="355" t="n"/>
-      <c r="C36" s="355" t="n"/>
-      <c r="D36" s="355" t="n"/>
-      <c r="E36" s="355" t="n"/>
+      <c r="B36" s="370" t="n"/>
+      <c r="C36" s="370" t="n"/>
+      <c r="D36" s="370" t="n"/>
+      <c r="E36" s="370" t="n"/>
       <c r="F36" s="371" t="n"/>
     </row>
-    <row r="37" ht="15" customHeight="1" s="342">
+    <row r="37" ht="15" customHeight="1" s="339">
       <c r="A37" s="381" t="inlineStr">
         <is>
           <t xml:space="preserve">       M.R. SEKHAR, 8143                                                                           P.K.PANDA, 6875</t>
         </is>
       </c>
-      <c r="B37" s="355" t="n"/>
-      <c r="C37" s="355" t="n"/>
-      <c r="D37" s="355" t="n"/>
-      <c r="E37" s="355" t="n"/>
+      <c r="B37" s="370" t="n"/>
+      <c r="C37" s="370" t="n"/>
+      <c r="D37" s="370" t="n"/>
+      <c r="E37" s="370" t="n"/>
       <c r="F37" s="371" t="n"/>
     </row>
-    <row r="38" ht="11.25" customHeight="1" s="342">
+    <row r="38" ht="11.25" customHeight="1" s="339">
       <c r="A38" s="381" t="inlineStr">
         <is>
           <t xml:space="preserve">    E-I-C (Name &amp; EID No.)                                                                      O-I-C (Name &amp; EID no.)</t>
         </is>
       </c>
-      <c r="B38" s="355" t="n"/>
-      <c r="C38" s="355" t="n"/>
-      <c r="D38" s="355" t="n"/>
-      <c r="E38" s="355" t="n"/>
+      <c r="B38" s="370" t="n"/>
+      <c r="C38" s="370" t="n"/>
+      <c r="D38" s="370" t="n"/>
+      <c r="E38" s="370" t="n"/>
       <c r="F38" s="371" t="n"/>
     </row>
-    <row r="39" ht="15" customHeight="1" s="342">
+    <row r="39" ht="15" customHeight="1" s="339">
       <c r="A39" s="381" t="n"/>
-      <c r="B39" s="355" t="n"/>
-      <c r="C39" s="355" t="n"/>
-      <c r="D39" s="355" t="n"/>
-      <c r="E39" s="355" t="n"/>
+      <c r="B39" s="370" t="n"/>
+      <c r="C39" s="370" t="n"/>
+      <c r="D39" s="370" t="n"/>
+      <c r="E39" s="370" t="n"/>
       <c r="F39" s="371" t="n"/>
     </row>
-    <row r="40" ht="15" customHeight="1" s="342">
+    <row r="40" ht="15" customHeight="1" s="339">
       <c r="A40" s="381" t="n"/>
-      <c r="B40" s="355" t="n"/>
-      <c r="C40" s="355" t="n"/>
-      <c r="D40" s="355" t="n"/>
-      <c r="E40" s="355" t="n"/>
+      <c r="B40" s="370" t="n"/>
+      <c r="C40" s="370" t="n"/>
+      <c r="D40" s="370" t="n"/>
+      <c r="E40" s="370" t="n"/>
       <c r="F40" s="371" t="n"/>
     </row>
-    <row r="41" ht="15" customHeight="1" s="342">
+    <row r="41" ht="15" customHeight="1" s="339">
       <c r="A41" s="381" t="n"/>
-      <c r="B41" s="355" t="n"/>
-      <c r="C41" s="355" t="n"/>
-      <c r="D41" s="355" t="n"/>
-      <c r="E41" s="355" t="n"/>
+      <c r="B41" s="370" t="n"/>
+      <c r="C41" s="370" t="n"/>
+      <c r="D41" s="370" t="n"/>
+      <c r="E41" s="370" t="n"/>
       <c r="F41" s="371" t="n"/>
     </row>
-    <row r="42" ht="15" customHeight="1" s="342">
+    <row r="42" ht="15" customHeight="1" s="339">
       <c r="A42" s="381" t="inlineStr">
         <is>
           <t xml:space="preserve">    Maker of PRR (Name &amp; EID No.)</t>
         </is>
       </c>
-      <c r="B42" s="355" t="n"/>
-      <c r="C42" s="355" t="n"/>
-      <c r="D42" s="355" t="n"/>
-      <c r="E42" s="355" t="n"/>
+      <c r="B42" s="370" t="n"/>
+      <c r="C42" s="370" t="n"/>
+      <c r="D42" s="370" t="n"/>
+      <c r="E42" s="370" t="n"/>
       <c r="F42" s="371" t="n"/>
     </row>
-    <row r="43" ht="15" customHeight="1" s="342">
+    <row r="43" ht="15" customHeight="1" s="339">
       <c r="A43" s="381" t="n"/>
-      <c r="B43" s="355" t="n"/>
-      <c r="C43" s="355" t="n"/>
-      <c r="D43" s="355" t="n"/>
-      <c r="E43" s="355" t="n"/>
+      <c r="B43" s="370" t="n"/>
+      <c r="C43" s="370" t="n"/>
+      <c r="D43" s="370" t="n"/>
+      <c r="E43" s="370" t="n"/>
       <c r="F43" s="371" t="n"/>
     </row>
-    <row r="44" ht="15" customHeight="1" s="342">
+    <row r="44" ht="15" customHeight="1" s="339">
       <c r="A44" s="381" t="n"/>
-      <c r="B44" s="355" t="n"/>
-      <c r="C44" s="355" t="n"/>
-      <c r="D44" s="355" t="n"/>
-      <c r="E44" s="355" t="n"/>
+      <c r="B44" s="370" t="n"/>
+      <c r="C44" s="370" t="n"/>
+      <c r="D44" s="370" t="n"/>
+      <c r="E44" s="370" t="n"/>
       <c r="F44" s="371" t="n"/>
     </row>
-    <row r="45" ht="15" customHeight="1" s="342">
+    <row r="45" ht="15" customHeight="1" s="339">
       <c r="A45" s="381" t="n"/>
-      <c r="B45" s="355" t="n"/>
-      <c r="C45" s="355" t="n"/>
-      <c r="D45" s="355" t="n"/>
-      <c r="E45" s="355" t="n"/>
+      <c r="B45" s="370" t="n"/>
+      <c r="C45" s="370" t="n"/>
+      <c r="D45" s="370" t="n"/>
+      <c r="E45" s="370" t="n"/>
       <c r="F45" s="371" t="n"/>
     </row>
-    <row r="46" ht="27.75" customHeight="1" s="342">
+    <row r="46" ht="27.75" customHeight="1" s="339">
       <c r="A46" s="381" t="inlineStr">
         <is>
           <t xml:space="preserve"> Authoriser1 of PRR (With EID, Seal &amp; Signature)              Authoriser2 of PRR  (With EID, Seal &amp; Signature)</t>
         </is>
       </c>
-      <c r="B46" s="355" t="n"/>
-      <c r="C46" s="355" t="n"/>
-      <c r="D46" s="355" t="n"/>
-      <c r="E46" s="355" t="n"/>
+      <c r="B46" s="370" t="n"/>
+      <c r="C46" s="370" t="n"/>
+      <c r="D46" s="370" t="n"/>
+      <c r="E46" s="370" t="n"/>
       <c r="F46" s="371" t="n"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1" s="342">
+    <row r="47" ht="15.75" customHeight="1" s="339">
       <c r="A47" s="382" t="n"/>
       <c r="B47" s="373" t="n"/>
       <c r="C47" s="373" t="n"/>

--- a/bill docs/22SNCJO-373/attendance/attendance_format_2_2024.xlsx
+++ b/bill docs/22SNCJO-373/attendance/attendance_format_2_2024.xlsx
@@ -3752,7 +3752,7 @@
         <v>138.26</v>
       </c>
       <c r="K6" s="357" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="L6" s="357" t="n">
         <v>1938.26</v>
@@ -3773,7 +3773,7 @@
         <v>2549.1</v>
       </c>
       <c r="R6" s="357" t="n">
-        <v>16345.74</v>
+        <v>16495.74</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1" s="339">
@@ -3806,7 +3806,7 @@
         <v>138.26</v>
       </c>
       <c r="K7" s="359" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="L7" s="359" t="n">
         <v>1938.26</v>
@@ -3827,7 +3827,7 @@
         <v>2549.1</v>
       </c>
       <c r="R7" s="359" t="n">
-        <v>16345.74</v>
+        <v>16495.74</v>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1" s="339">
@@ -3864,7 +3864,7 @@
         <v>112.65</v>
       </c>
       <c r="K8" s="357" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="L8" s="357" t="n">
         <v>1912.65</v>
@@ -3885,7 +3885,7 @@
         <v>2438.13</v>
       </c>
       <c r="R8" s="357" t="n">
-        <v>12956.85</v>
+        <v>13106.85</v>
       </c>
     </row>
     <row r="9" ht="18.75" customHeight="1" s="339">
@@ -3918,7 +3918,7 @@
         <v>112.65</v>
       </c>
       <c r="K9" s="359" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="L9" s="359" t="n">
         <v>1912.65</v>
@@ -3939,7 +3939,7 @@
         <v>2438.13</v>
       </c>
       <c r="R9" s="359" t="n">
-        <v>12956.85</v>
+        <v>13106.85</v>
       </c>
     </row>
     <row r="10" ht="18.75" customHeight="1" s="339">
@@ -4084,7 +4084,7 @@
         <v>343.52</v>
       </c>
       <c r="K12" s="362" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L12" s="362" t="n">
         <v>5425.28</v>
@@ -4105,7 +4105,7 @@
         <v>6993.78</v>
       </c>
       <c r="R12" s="362" t="n">
-        <v>40076.22</v>
+        <v>40376.22</v>
       </c>
     </row>
     <row r="16">

--- a/bill docs/22SNCJO-373/attendance/attendance_format_2_2024.xlsx
+++ b/bill docs/22SNCJO-373/attendance/attendance_format_2_2024.xlsx
@@ -2972,7 +2972,7 @@
         <v>26</v>
       </c>
       <c r="AJ9" s="332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="15" customFormat="1" customHeight="1" s="331">
@@ -3096,7 +3096,7 @@
         <v>25.5</v>
       </c>
       <c r="AJ10" s="334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" ht="15" customFormat="1" customHeight="1" s="331">
@@ -3222,7 +3222,7 @@
         <v>24.5</v>
       </c>
       <c r="AJ11" s="334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" ht="15" customFormat="1" customHeight="1" s="331">
@@ -3731,7 +3731,7 @@
         <v>26</v>
       </c>
       <c r="D6" s="357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="357" t="n">
         <v>709</v>
@@ -3740,7 +3740,7 @@
         <v>18434</v>
       </c>
       <c r="G6" s="357" t="n">
-        <v>0</v>
+        <v>709</v>
       </c>
       <c r="H6" s="357" t="n">
         <v>15000</v>
@@ -3752,7 +3752,7 @@
         <v>138.26</v>
       </c>
       <c r="K6" s="357" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="L6" s="357" t="n">
         <v>1938.26</v>
@@ -3773,7 +3773,7 @@
         <v>2549.1</v>
       </c>
       <c r="R6" s="357" t="n">
-        <v>16495.74</v>
+        <v>17054.74</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1" s="339">
@@ -3787,15 +3787,13 @@
         <v>26</v>
       </c>
       <c r="D7" s="359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="359" t="inlineStr"/>
       <c r="F7" s="359" t="n">
         <v>18434</v>
       </c>
-      <c r="G7" s="359" t="n">
-        <v>0</v>
-      </c>
+      <c r="G7" s="359" t="inlineStr"/>
       <c r="H7" s="359" t="n">
         <v>15000</v>
       </c>
@@ -3806,7 +3804,7 @@
         <v>138.26</v>
       </c>
       <c r="K7" s="359" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="L7" s="359" t="n">
         <v>1938.26</v>
@@ -3827,7 +3825,7 @@
         <v>2549.1</v>
       </c>
       <c r="R7" s="359" t="n">
-        <v>16495.74</v>
+        <v>17054.74</v>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1" s="339">
@@ -3843,7 +3841,7 @@
         <v>25.5</v>
       </c>
       <c r="D8" s="357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="357" t="n">
         <v>589</v>
@@ -3852,7 +3850,7 @@
         <v>15019.5</v>
       </c>
       <c r="G8" s="357" t="n">
-        <v>0</v>
+        <v>589</v>
       </c>
       <c r="H8" s="357" t="n">
         <v>15000</v>
@@ -3864,7 +3862,7 @@
         <v>112.65</v>
       </c>
       <c r="K8" s="357" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="L8" s="357" t="n">
         <v>1912.65</v>
@@ -3885,7 +3883,7 @@
         <v>2438.13</v>
       </c>
       <c r="R8" s="357" t="n">
-        <v>13106.85</v>
+        <v>13545.85</v>
       </c>
     </row>
     <row r="9" ht="18.75" customHeight="1" s="339">
@@ -3899,15 +3897,13 @@
         <v>25.5</v>
       </c>
       <c r="D9" s="359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="359" t="inlineStr"/>
       <c r="F9" s="359" t="n">
         <v>15019.5</v>
       </c>
-      <c r="G9" s="359" t="n">
-        <v>0</v>
-      </c>
+      <c r="G9" s="359" t="inlineStr"/>
       <c r="H9" s="359" t="n">
         <v>15000</v>
       </c>
@@ -3918,7 +3914,7 @@
         <v>112.65</v>
       </c>
       <c r="K9" s="359" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="L9" s="359" t="n">
         <v>1912.65</v>
@@ -3939,7 +3935,7 @@
         <v>2438.13</v>
       </c>
       <c r="R9" s="359" t="n">
-        <v>13106.85</v>
+        <v>13545.85</v>
       </c>
     </row>
     <row r="10" ht="18.75" customHeight="1" s="339">
@@ -3955,7 +3951,7 @@
         <v>24.5</v>
       </c>
       <c r="D10" s="357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="357" t="n">
         <v>504</v>
@@ -3964,7 +3960,7 @@
         <v>12348</v>
       </c>
       <c r="G10" s="357" t="n">
-        <v>0</v>
+        <v>504</v>
       </c>
       <c r="H10" s="357" t="n">
         <v>12348</v>
@@ -3997,7 +3993,7 @@
         <v>2006.55</v>
       </c>
       <c r="R10" s="357" t="n">
-        <v>10773.63</v>
+        <v>11277.63</v>
       </c>
     </row>
     <row r="11" ht="18.75" customHeight="1" s="339">
@@ -4011,15 +4007,13 @@
         <v>24.5</v>
       </c>
       <c r="D11" s="359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="359" t="inlineStr"/>
       <c r="F11" s="359" t="n">
         <v>12348</v>
       </c>
-      <c r="G11" s="359" t="n">
-        <v>0</v>
-      </c>
+      <c r="G11" s="359" t="inlineStr"/>
       <c r="H11" s="359" t="n">
         <v>12348</v>
       </c>
@@ -4051,7 +4045,7 @@
         <v>2006.55</v>
       </c>
       <c r="R11" s="359" t="n">
-        <v>10773.63</v>
+        <v>11277.63</v>
       </c>
     </row>
     <row r="12" ht="18.75" customHeight="1" s="339">
@@ -4065,15 +4059,13 @@
         <v>76</v>
       </c>
       <c r="D12" s="362" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E12" s="362" t="inlineStr"/>
       <c r="F12" s="362" t="n">
         <v>45801.5</v>
       </c>
-      <c r="G12" s="362" t="n">
-        <v>0</v>
-      </c>
+      <c r="G12" s="362" t="inlineStr"/>
       <c r="H12" s="362" t="n">
         <v>42348</v>
       </c>
@@ -4084,7 +4076,7 @@
         <v>343.52</v>
       </c>
       <c r="K12" s="362" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L12" s="362" t="n">
         <v>5425.28</v>
@@ -4105,7 +4097,7 @@
         <v>6993.78</v>
       </c>
       <c r="R12" s="362" t="n">
-        <v>40376.22</v>
+        <v>41878.22</v>
       </c>
     </row>
     <row r="16">
@@ -4397,15 +4389,13 @@
         <v>504</v>
       </c>
       <c r="D13" s="295" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="295">
-        <f>D13</f>
-        <v/>
-      </c>
-      <c r="F13" s="297">
-        <f>C13*D13</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="E13" s="295" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="297" t="n">
+        <v>504</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1" s="339">
@@ -4415,15 +4405,13 @@
         <v>589</v>
       </c>
       <c r="D14" s="295" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="295">
-        <f>D14</f>
-        <v/>
-      </c>
-      <c r="F14" s="297">
-        <f>C14*D14</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="E14" s="295" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="297" t="n">
+        <v>589</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1" s="339">
@@ -4433,15 +4421,13 @@
         <v>709</v>
       </c>
       <c r="D15" s="295" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="295">
-        <f>D15</f>
-        <v/>
-      </c>
-      <c r="F15" s="297">
-        <f>C15*D15</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="E15" s="295" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="297" t="n">
+        <v>709</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1" s="339">
@@ -4544,7 +4530,7 @@
       <c r="D21" s="295" t="n"/>
       <c r="E21" s="295" t="n"/>
       <c r="F21" s="296" t="n">
-        <v>9824.206499999998</v>
+        <v>10148.5665</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1" s="339">
@@ -4562,7 +4548,7 @@
       <c r="D22" s="295" t="n"/>
       <c r="E22" s="295" t="n"/>
       <c r="F22" s="296" t="n">
-        <v>64403.1315</v>
+        <v>66529.49149999999</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1" s="339">
@@ -4678,7 +4664,7 @@
       <c r="D28" s="294" t="n"/>
       <c r="E28" s="294" t="n"/>
       <c r="F28" s="303" t="n">
-        <v>64403.1315</v>
+        <v>66529.49149999999</v>
       </c>
     </row>
     <row r="29" ht="39" customHeight="1" s="339">
